--- a/IT Curves/IT_Features_All.xlsx
+++ b/IT Curves/IT_Features_All.xlsx
@@ -37,547 +37,547 @@
     <t>Local Maxima</t>
   </si>
   <si>
+    <t>./11 17C.txt</t>
+  </si>
+  <si>
+    <t>./18 22C.txt</t>
+  </si>
+  <si>
+    <t>./21 25C.txt</t>
+  </si>
+  <si>
+    <t>./52 4G.txt</t>
+  </si>
+  <si>
+    <t>./101 pa44.txt</t>
+  </si>
+  <si>
+    <t>./88 pa31.txt</t>
+  </si>
+  <si>
     <t>./99 pa41.txt</t>
   </si>
   <si>
+    <t>./137 t2.txt</t>
+  </si>
+  <si>
+    <t>./70 mc28.txt</t>
+  </si>
+  <si>
+    <t>./176 tcb20.txt</t>
+  </si>
+  <si>
+    <t>./102 pa45.txt</t>
+  </si>
+  <si>
+    <t>./25 2C.txt</t>
+  </si>
+  <si>
+    <t>./139 t4.txt</t>
+  </si>
+  <si>
+    <t>./57 mc1.txt</t>
+  </si>
+  <si>
+    <t>./8 14C.txt</t>
+  </si>
+  <si>
+    <t>./100 pa42.txt</t>
+  </si>
+  <si>
+    <t>./94 pa5.txt</t>
+  </si>
+  <si>
+    <t>./121 mc49.txt</t>
+  </si>
+  <si>
+    <t>./22 27C.txt</t>
+  </si>
+  <si>
+    <t>./115 mc43.txt</t>
+  </si>
+  <si>
+    <t>./60 mc13.txt</t>
+  </si>
+  <si>
+    <t>./71 mc29.txt</t>
+  </si>
+  <si>
+    <t>./2 10E.txt</t>
+  </si>
+  <si>
+    <t>./49 1G.txt</t>
+  </si>
+  <si>
+    <t>./173 tcb17.txt</t>
+  </si>
+  <si>
+    <t>./148 t14.txt</t>
+  </si>
+  <si>
+    <t>./108 pa52.txt</t>
+  </si>
+  <si>
+    <t>./149 t15.txt</t>
+  </si>
+  <si>
+    <t>./169 tcb9.txt</t>
+  </si>
+  <si>
+    <t>./54 6G.txt</t>
+  </si>
+  <si>
+    <t>./58 mc10.txt</t>
+  </si>
+  <si>
+    <t>./39 6E.txt</t>
+  </si>
+  <si>
+    <t>./111 pa55.txt</t>
+  </si>
+  <si>
+    <t>./130 mc59.txt</t>
+  </si>
+  <si>
+    <t>./134 mc2.txt</t>
+  </si>
+  <si>
+    <t>./147 t12.txt</t>
+  </si>
+  <si>
+    <t>./83 pa19.txt</t>
+  </si>
+  <si>
+    <t>./161 t28.txt</t>
+  </si>
+  <si>
+    <t>./7 13D.txt</t>
+  </si>
+  <si>
+    <t>./89 pa33.txt</t>
+  </si>
+  <si>
+    <t>./1 10C.txt</t>
+  </si>
+  <si>
+    <t>./151 t18.txt</t>
+  </si>
+  <si>
+    <t>./158 t25.txt</t>
+  </si>
+  <si>
+    <t>./85 pa21.txt</t>
+  </si>
+  <si>
+    <t>./155 t22.txt</t>
+  </si>
+  <si>
+    <t>./127 mc56.txt</t>
+  </si>
+  <si>
+    <t>./179 tcb25.txt</t>
+  </si>
+  <si>
+    <t>./24 29C.txt</t>
+  </si>
+  <si>
+    <t>./154 t21.txt</t>
+  </si>
+  <si>
+    <t>./156 t23.txt</t>
+  </si>
+  <si>
+    <t>./51 3G.txt</t>
+  </si>
+  <si>
+    <t>./143 t8.txt</t>
+  </si>
+  <si>
+    <t>./120 mc48.txt</t>
+  </si>
+  <si>
+    <t>./131 mc60.txt</t>
+  </si>
+  <si>
+    <t>./152 t19.txt</t>
+  </si>
+  <si>
+    <t>./113 pa2.txt</t>
+  </si>
+  <si>
+    <t>./9 15D.txt</t>
+  </si>
+  <si>
+    <t>./105 pa48.txt</t>
+  </si>
+  <si>
+    <t>./133 mc62.txt</t>
+  </si>
+  <si>
+    <t>./27 2F.txt</t>
+  </si>
+  <si>
+    <t>./170 tcb10.txt</t>
+  </si>
+  <si>
+    <t>./43 7F.txt</t>
+  </si>
+  <si>
+    <t>./123 mc51.txt</t>
+  </si>
+  <si>
+    <t>./122 mc50.txt</t>
+  </si>
+  <si>
+    <t>./171 tcb11.txt</t>
+  </si>
+  <si>
+    <t>./150 t16.txt</t>
+  </si>
+  <si>
+    <t>./38 6C.txt</t>
+  </si>
+  <si>
+    <t>./46 8E.txt</t>
+  </si>
+  <si>
+    <t>./32 4D.txt</t>
+  </si>
+  <si>
+    <t>./93 pa4.txt</t>
+  </si>
+  <si>
+    <t>./44 8C.txt</t>
+  </si>
+  <si>
+    <t>./82 pa18.txt</t>
+  </si>
+  <si>
+    <t>./55 9G.txt</t>
+  </si>
+  <si>
+    <t>./112 pa56.txt</t>
+  </si>
+  <si>
+    <t>./180 tcb26.txt</t>
+  </si>
+  <si>
+    <t>./62 mc20.txt</t>
+  </si>
+  <si>
+    <t>./132 mc61.txt</t>
+  </si>
+  <si>
+    <t>./13 19D.txt</t>
+  </si>
+  <si>
+    <t>./5 12D.txt</t>
+  </si>
+  <si>
+    <t>./166 tcb5.txt</t>
+  </si>
+  <si>
+    <t>./87 pa30.txt</t>
+  </si>
+  <si>
+    <t>./63 mc21.txt</t>
+  </si>
+  <si>
+    <t>./129 mc58.txt</t>
+  </si>
+  <si>
+    <t>./181 tcb27.txt</t>
+  </si>
+  <si>
+    <t>./103 pa46.txt</t>
+  </si>
+  <si>
+    <t>./174 tcb18.txt</t>
+  </si>
+  <si>
     <t>./16 20D.txt</t>
   </si>
   <si>
-    <t>./100 pa42.txt</t>
-  </si>
-  <si>
-    <t>./179 tcb25.txt</t>
+    <t>./159 t26.txt</t>
+  </si>
+  <si>
+    <t>./86 pa29.txt</t>
+  </si>
+  <si>
+    <t>./144 t9.txt</t>
+  </si>
+  <si>
+    <t>./118 mc46.txt</t>
+  </si>
+  <si>
+    <t>./114 pa4.txt</t>
+  </si>
+  <si>
+    <t>./28 30C.txt</t>
+  </si>
+  <si>
+    <t>./146 t11.txt</t>
+  </si>
+  <si>
+    <t>./90 pa34.txt</t>
+  </si>
+  <si>
+    <t>./15 20C.txt</t>
+  </si>
+  <si>
+    <t>./77 mc5.txt</t>
+  </si>
+  <si>
+    <t>./142 t7.txt</t>
+  </si>
+  <si>
+    <t>./135 mc7.txt</t>
+  </si>
+  <si>
+    <t>./35 5D.txt</t>
+  </si>
+  <si>
+    <t>./80 pa10.txt</t>
+  </si>
+  <si>
+    <t>./14 1F.txt</t>
+  </si>
+  <si>
+    <t>./36 5E.txt</t>
+  </si>
+  <si>
+    <t>./31 4C.txt</t>
+  </si>
+  <si>
+    <t>./116 mc44.txt</t>
+  </si>
+  <si>
+    <t>./178 tcb24.txt</t>
+  </si>
+  <si>
+    <t>./110 pa54.txt</t>
+  </si>
+  <si>
+    <t>./20 24C.txt</t>
+  </si>
+  <si>
+    <t>./125 mc53.txt</t>
+  </si>
+  <si>
+    <t>./47 9D.txt</t>
+  </si>
+  <si>
+    <t>./106 pa50.txt</t>
+  </si>
+  <si>
+    <t>./67 mc25.txt</t>
+  </si>
+  <si>
+    <t>./160 t27.txt</t>
+  </si>
+  <si>
+    <t>./91 pa35.txt</t>
+  </si>
+  <si>
+    <t>./61 mc2.txt</t>
+  </si>
+  <si>
+    <t>./138 t3.txt</t>
+  </si>
+  <si>
+    <t>./72 mc30.txt</t>
+  </si>
+  <si>
+    <t>./168 tcb8.txt</t>
+  </si>
+  <si>
+    <t>./175 tcb19.txt</t>
+  </si>
+  <si>
+    <t>./128 mc57.txt</t>
+  </si>
+  <si>
+    <t>./75 mc33.txt</t>
+  </si>
+  <si>
+    <t>./33 4E.txt</t>
+  </si>
+  <si>
+    <t>./140 t5.txt</t>
+  </si>
+  <si>
+    <t>./42 7E.txt</t>
   </si>
   <si>
     <t>./12 18D.txt</t>
   </si>
   <si>
-    <t>./180 tcb26.txt</t>
-  </si>
-  <si>
-    <t>./35 5D.txt</t>
-  </si>
-  <si>
-    <t>./70 mc28.txt</t>
-  </si>
-  <si>
-    <t>./143 t8.txt</t>
-  </si>
-  <si>
-    <t>./133 mc62.txt</t>
-  </si>
-  <si>
-    <t>./55 9G.txt</t>
-  </si>
-  <si>
-    <t>./90 pa34.txt</t>
-  </si>
-  <si>
-    <t>./8 14C.txt</t>
-  </si>
-  <si>
-    <t>./93 pa4.txt</t>
-  </si>
-  <si>
-    <t>./129 mc58.txt</t>
+    <t>./65 mc23.txt</t>
+  </si>
+  <si>
+    <t>./81 pa17.txt</t>
+  </si>
+  <si>
+    <t>./41 7D.txt</t>
+  </si>
+  <si>
+    <t>./145 t10.txt</t>
+  </si>
+  <si>
+    <t>./37 5F.txt</t>
+  </si>
+  <si>
+    <t>./6 13C.txt</t>
+  </si>
+  <si>
+    <t>./64 mc22.txt</t>
+  </si>
+  <si>
+    <t>./165 tcb4.txt</t>
+  </si>
+  <si>
+    <t>./95 pa37.txt</t>
+  </si>
+  <si>
+    <t>./157 t24.txt</t>
+  </si>
+  <si>
+    <t>./66 mc24.txt</t>
+  </si>
+  <si>
+    <t>./164 tcb2.txt</t>
+  </si>
+  <si>
+    <t>./73 mc31.txt</t>
+  </si>
+  <si>
+    <t>./177 tcb21.txt</t>
+  </si>
+  <si>
+    <t>./45 8D.txt</t>
+  </si>
+  <si>
+    <t>./40 7C.txt</t>
+  </si>
+  <si>
+    <t>./34 4F.txt</t>
+  </si>
+  <si>
+    <t>./69 mc27.txt</t>
+  </si>
+  <si>
+    <t>./78 mc8.txt</t>
+  </si>
+  <si>
+    <t>./30 3E.txt</t>
+  </si>
+  <si>
+    <t>./162 t29.txt</t>
+  </si>
+  <si>
+    <t>./4 12C.txt</t>
+  </si>
+  <si>
+    <t>./109 pa53.txt</t>
+  </si>
+  <si>
+    <t>./96 pa38.txt</t>
+  </si>
+  <si>
+    <t>./107 pa51.txt</t>
+  </si>
+  <si>
+    <t>./10 16C.txt</t>
+  </si>
+  <si>
+    <t>./79 mc9.txt</t>
+  </si>
+  <si>
+    <t>./98 pa40.txt</t>
+  </si>
+  <si>
+    <t>./76 mc34.txt</t>
+  </si>
+  <si>
+    <t>./59 mc12.txt</t>
+  </si>
+  <si>
+    <t>./23 28C.txt</t>
+  </si>
+  <si>
+    <t>./153 t20.txt</t>
+  </si>
+  <si>
+    <t>./74 mc32.txt</t>
+  </si>
+  <si>
+    <t>./53 5G.txt</t>
+  </si>
+  <si>
+    <t>./104 pa47.txt</t>
+  </si>
+  <si>
+    <t>./19 23C.txt</t>
+  </si>
+  <si>
+    <t>./119 mc49.txt</t>
+  </si>
+  <si>
+    <t>./17 21C.txt</t>
+  </si>
+  <si>
+    <t>./68 mc26.txt</t>
+  </si>
+  <si>
+    <t>./26 2E.txt</t>
+  </si>
+  <si>
+    <t>./3 11C.txt</t>
+  </si>
+  <si>
+    <t>./56 11G.txt</t>
+  </si>
+  <si>
+    <t>./92 pa36.txt</t>
+  </si>
+  <si>
+    <t>./167 tcb6.txt</t>
+  </si>
+  <si>
+    <t>./84 pa20.txt</t>
+  </si>
+  <si>
+    <t>./172 tcb12.txt</t>
   </si>
   <si>
     <t>./117 mc45.txt</t>
   </si>
   <si>
-    <t>./111 pa55.txt</t>
-  </si>
-  <si>
-    <t>./65 mc23.txt</t>
-  </si>
-  <si>
-    <t>./175 tcb19.txt</t>
-  </si>
-  <si>
-    <t>./84 pa20.txt</t>
-  </si>
-  <si>
-    <t>./46 8E.txt</t>
-  </si>
-  <si>
-    <t>./161 t28.txt</t>
-  </si>
-  <si>
-    <t>./41 7D.txt</t>
-  </si>
-  <si>
-    <t>./91 pa35.txt</t>
-  </si>
-  <si>
-    <t>./67 mc25.txt</t>
-  </si>
-  <si>
-    <t>./51 3G.txt</t>
-  </si>
-  <si>
-    <t>./66 mc24.txt</t>
-  </si>
-  <si>
-    <t>./178 tcb24.txt</t>
-  </si>
-  <si>
-    <t>./75 mc33.txt</t>
-  </si>
-  <si>
-    <t>./131 mc60.txt</t>
-  </si>
-  <si>
-    <t>./10 16C.txt</t>
-  </si>
-  <si>
-    <t>./34 4F.txt</t>
-  </si>
-  <si>
-    <t>./47 9D.txt</t>
-  </si>
-  <si>
-    <t>./1 10C.txt</t>
-  </si>
-  <si>
-    <t>./110 pa54.txt</t>
-  </si>
-  <si>
-    <t>./152 t19.txt</t>
-  </si>
-  <si>
-    <t>./21 25C.txt</t>
-  </si>
-  <si>
-    <t>./137 t2.txt</t>
-  </si>
-  <si>
-    <t>./177 tcb21.txt</t>
-  </si>
-  <si>
-    <t>./85 pa21.txt</t>
-  </si>
-  <si>
-    <t>./5 12D.txt</t>
-  </si>
-  <si>
-    <t>./64 mc22.txt</t>
-  </si>
-  <si>
-    <t>./38 6C.txt</t>
-  </si>
-  <si>
-    <t>./148 t14.txt</t>
-  </si>
-  <si>
-    <t>./125 mc53.txt</t>
-  </si>
-  <si>
-    <t>./28 30C.txt</t>
-  </si>
-  <si>
-    <t>./2 10E.txt</t>
-  </si>
-  <si>
-    <t>./112 pa56.txt</t>
-  </si>
-  <si>
-    <t>./150 t16.txt</t>
-  </si>
-  <si>
-    <t>./88 pa31.txt</t>
-  </si>
-  <si>
-    <t>./135 mc7.txt</t>
-  </si>
-  <si>
-    <t>./80 pa10.txt</t>
-  </si>
-  <si>
-    <t>./23 28C.txt</t>
-  </si>
-  <si>
-    <t>./109 pa53.txt</t>
-  </si>
-  <si>
-    <t>./118 mc46.txt</t>
-  </si>
-  <si>
-    <t>./116 mc44.txt</t>
-  </si>
-  <si>
-    <t>./83 pa19.txt</t>
-  </si>
-  <si>
-    <t>./15 20C.txt</t>
-  </si>
-  <si>
-    <t>./17 21C.txt</t>
-  </si>
-  <si>
-    <t>./173 tcb17.txt</t>
-  </si>
-  <si>
-    <t>./105 pa48.txt</t>
-  </si>
-  <si>
-    <t>./103 pa46.txt</t>
-  </si>
-  <si>
-    <t>./33 4E.txt</t>
-  </si>
-  <si>
-    <t>./181 tcb27.txt</t>
-  </si>
-  <si>
-    <t>./106 pa50.txt</t>
-  </si>
-  <si>
-    <t>./79 mc9.txt</t>
-  </si>
-  <si>
-    <t>./11 17C.txt</t>
-  </si>
-  <si>
-    <t>./127 mc56.txt</t>
-  </si>
-  <si>
-    <t>./60 mc13.txt</t>
-  </si>
-  <si>
-    <t>./6 13C.txt</t>
-  </si>
-  <si>
-    <t>./134 mc2.txt</t>
-  </si>
-  <si>
-    <t>./13 19D.txt</t>
-  </si>
-  <si>
-    <t>./174 tcb18.txt</t>
-  </si>
-  <si>
-    <t>./53 5G.txt</t>
-  </si>
-  <si>
-    <t>./166 tcb5.txt</t>
-  </si>
-  <si>
-    <t>./123 mc51.txt</t>
-  </si>
-  <si>
-    <t>./151 t18.txt</t>
-  </si>
-  <si>
-    <t>./107 pa51.txt</t>
-  </si>
-  <si>
-    <t>./122 mc50.txt</t>
-  </si>
-  <si>
-    <t>./59 mc12.txt</t>
-  </si>
-  <si>
-    <t>./14 1F.txt</t>
-  </si>
-  <si>
-    <t>./56 11G.txt</t>
-  </si>
-  <si>
-    <t>./121 mc49.txt</t>
-  </si>
-  <si>
-    <t>./138 t3.txt</t>
-  </si>
-  <si>
-    <t>./61 mc2.txt</t>
+    <t>./48 9E.txt</t>
   </si>
   <si>
     <t>./97 pa39.txt</t>
   </si>
   <si>
-    <t>./19 23C.txt</t>
-  </si>
-  <si>
-    <t>./24 29C.txt</t>
-  </si>
-  <si>
-    <t>./104 pa47.txt</t>
-  </si>
-  <si>
-    <t>./92 pa36.txt</t>
-  </si>
-  <si>
-    <t>./3 11C.txt</t>
-  </si>
-  <si>
-    <t>./20 24C.txt</t>
-  </si>
-  <si>
-    <t>./9 15D.txt</t>
-  </si>
-  <si>
-    <t>./44 8C.txt</t>
-  </si>
-  <si>
-    <t>./147 t12.txt</t>
-  </si>
-  <si>
-    <t>./119 mc49.txt</t>
-  </si>
-  <si>
-    <t>./157 t24.txt</t>
-  </si>
-  <si>
-    <t>./54 6G.txt</t>
-  </si>
-  <si>
-    <t>./139 t4.txt</t>
-  </si>
-  <si>
-    <t>./30 3E.txt</t>
-  </si>
-  <si>
-    <t>./78 mc8.txt</t>
-  </si>
-  <si>
-    <t>./159 t26.txt</t>
-  </si>
-  <si>
-    <t>./89 pa33.txt</t>
-  </si>
-  <si>
-    <t>./146 t11.txt</t>
-  </si>
-  <si>
-    <t>./168 tcb8.txt</t>
-  </si>
-  <si>
-    <t>./26 2E.txt</t>
+    <t>./29 3C.txt</t>
+  </si>
+  <si>
+    <t>./124 mc52.txt</t>
+  </si>
+  <si>
+    <t>./126 mc55.txt</t>
+  </si>
+  <si>
+    <t>./141 t6.txt</t>
+  </si>
+  <si>
+    <t>./50 2G.txt</t>
+  </si>
+  <si>
+    <t>./136 t1.txt</t>
   </si>
   <si>
     <t>./163 tcb1.txt</t>
-  </si>
-  <si>
-    <t>./4 12C.txt</t>
-  </si>
-  <si>
-    <t>./154 t21.txt</t>
-  </si>
-  <si>
-    <t>./140 t5.txt</t>
-  </si>
-  <si>
-    <t>./36 5E.txt</t>
-  </si>
-  <si>
-    <t>./31 4C.txt</t>
-  </si>
-  <si>
-    <t>./108 pa52.txt</t>
-  </si>
-  <si>
-    <t>./72 mc30.txt</t>
-  </si>
-  <si>
-    <t>./145 t10.txt</t>
-  </si>
-  <si>
-    <t>./7 13D.txt</t>
-  </si>
-  <si>
-    <t>./149 t15.txt</t>
-  </si>
-  <si>
-    <t>./141 t6.txt</t>
-  </si>
-  <si>
-    <t>./52 4G.txt</t>
-  </si>
-  <si>
-    <t>./76 mc34.txt</t>
-  </si>
-  <si>
-    <t>./42 7E.txt</t>
-  </si>
-  <si>
-    <t>./102 pa45.txt</t>
-  </si>
-  <si>
-    <t>./158 t25.txt</t>
-  </si>
-  <si>
-    <t>./115 mc43.txt</t>
-  </si>
-  <si>
-    <t>./68 mc26.txt</t>
-  </si>
-  <si>
-    <t>./82 pa18.txt</t>
-  </si>
-  <si>
-    <t>./170 tcb10.txt</t>
-  </si>
-  <si>
-    <t>./74 mc32.txt</t>
-  </si>
-  <si>
-    <t>./57 mc1.txt</t>
-  </si>
-  <si>
-    <t>./62 mc20.txt</t>
-  </si>
-  <si>
-    <t>./77 mc5.txt</t>
-  </si>
-  <si>
-    <t>./128 mc57.txt</t>
-  </si>
-  <si>
-    <t>./153 t20.txt</t>
-  </si>
-  <si>
-    <t>./165 tcb4.txt</t>
-  </si>
-  <si>
-    <t>./48 9E.txt</t>
-  </si>
-  <si>
-    <t>./29 3C.txt</t>
-  </si>
-  <si>
-    <t>./130 mc59.txt</t>
-  </si>
-  <si>
-    <t>./18 22C.txt</t>
-  </si>
-  <si>
-    <t>./25 2C.txt</t>
-  </si>
-  <si>
-    <t>./43 7F.txt</t>
-  </si>
-  <si>
-    <t>./113 pa2.txt</t>
-  </si>
-  <si>
-    <t>./176 tcb20.txt</t>
-  </si>
-  <si>
-    <t>./171 tcb11.txt</t>
-  </si>
-  <si>
-    <t>./142 t7.txt</t>
-  </si>
-  <si>
-    <t>./94 pa5.txt</t>
-  </si>
-  <si>
-    <t>./132 mc61.txt</t>
-  </si>
-  <si>
-    <t>./98 pa40.txt</t>
-  </si>
-  <si>
-    <t>./81 pa17.txt</t>
-  </si>
-  <si>
-    <t>./95 pa37.txt</t>
-  </si>
-  <si>
-    <t>./120 mc48.txt</t>
-  </si>
-  <si>
-    <t>./156 t23.txt</t>
-  </si>
-  <si>
-    <t>./169 tcb9.txt</t>
-  </si>
-  <si>
-    <t>./73 mc31.txt</t>
-  </si>
-  <si>
-    <t>./96 pa38.txt</t>
-  </si>
-  <si>
-    <t>./86 pa29.txt</t>
-  </si>
-  <si>
-    <t>./32 4D.txt</t>
-  </si>
-  <si>
-    <t>./160 t27.txt</t>
-  </si>
-  <si>
-    <t>./50 2G.txt</t>
-  </si>
-  <si>
-    <t>./124 mc52.txt</t>
-  </si>
-  <si>
-    <t>./164 tcb2.txt</t>
-  </si>
-  <si>
-    <t>./49 1G.txt</t>
-  </si>
-  <si>
-    <t>./162 t29.txt</t>
-  </si>
-  <si>
-    <t>./58 mc10.txt</t>
-  </si>
-  <si>
-    <t>./167 tcb6.txt</t>
-  </si>
-  <si>
-    <t>./172 tcb12.txt</t>
-  </si>
-  <si>
-    <t>./87 pa30.txt</t>
-  </si>
-  <si>
-    <t>./101 pa44.txt</t>
-  </si>
-  <si>
-    <t>./69 mc27.txt</t>
-  </si>
-  <si>
-    <t>./71 mc29.txt</t>
-  </si>
-  <si>
-    <t>./136 t1.txt</t>
-  </si>
-  <si>
-    <t>./22 27C.txt</t>
-  </si>
-  <si>
-    <t>./37 5F.txt</t>
-  </si>
-  <si>
-    <t>./144 t9.txt</t>
-  </si>
-  <si>
-    <t>./40 7C.txt</t>
-  </si>
-  <si>
-    <t>./63 mc21.txt</t>
-  </si>
-  <si>
-    <t>./27 2F.txt</t>
-  </si>
-  <si>
-    <t>./155 t22.txt</t>
-  </si>
-  <si>
-    <t>./114 pa4.txt</t>
-  </si>
-  <si>
-    <t>./45 8D.txt</t>
-  </si>
-  <si>
-    <t>./126 mc55.txt</t>
-  </si>
-  <si>
-    <t>./39 6E.txt</t>
   </si>
 </sst>
 </file>
@@ -952,22 +952,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>332.018</v>
+        <v>290.3668</v>
       </c>
       <c r="C2">
-        <v>109.7418426037188</v>
+        <v>31.9444073748671</v>
       </c>
       <c r="D2">
-        <v>18.9243217413395</v>
+        <v>15.24501646971653</v>
       </c>
       <c r="E2">
-        <v>0.1738499999999998</v>
+        <v>0.4830999999999999</v>
       </c>
       <c r="F2">
-        <v>30.375760436134</v>
+        <v>16.68141977581</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -975,22 +975,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>366.791</v>
+        <v>170.3808</v>
       </c>
       <c r="C3">
-        <v>50.80516875513344</v>
+        <v>38.3853313709341</v>
       </c>
       <c r="D3">
-        <v>17.30894229755484</v>
+        <v>12.68966011172738</v>
       </c>
       <c r="E3">
-        <v>0.3564499999999953</v>
+        <v>0.3346</v>
       </c>
       <c r="F3">
-        <v>8.720309882664999</v>
+        <v>20.543937068605</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -998,22 +998,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>331.2538</v>
+        <v>212.032</v>
       </c>
       <c r="C4">
-        <v>53.46121239503356</v>
+        <v>51.49527182176154</v>
       </c>
       <c r="D4">
-        <v>16.77555660159711</v>
+        <v>17.96107798239928</v>
       </c>
       <c r="E4">
-        <v>0.3165</v>
+        <v>0.4417</v>
       </c>
       <c r="F4">
-        <v>13.920744288437</v>
+        <v>8.310217622937</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1021,22 +1021,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>435.955</v>
+        <v>168.4702</v>
       </c>
       <c r="C5">
-        <v>126.960541762648</v>
+        <v>74.13467930862907</v>
       </c>
       <c r="D5">
-        <v>26.74966720732355</v>
+        <v>6.742073315580042</v>
       </c>
       <c r="E5">
-        <v>0.2121999999999997</v>
+        <v>0.09190000000000031</v>
       </c>
       <c r="F5">
-        <v>69.200953327432</v>
+        <v>35.308530295435</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1044,19 +1044,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>97.77777</v>
+        <v>269.3502</v>
       </c>
       <c r="C6">
-        <v>23.71593290150255</v>
+        <v>107.2120897801839</v>
       </c>
       <c r="D6">
-        <v>4.620607931398013</v>
+        <v>18.53651202411734</v>
       </c>
       <c r="E6">
-        <v>0.2526499999999992</v>
+        <v>0.17415</v>
       </c>
       <c r="F6">
-        <v>8.258707695190001</v>
+        <v>24.832947529461</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1067,22 +1067,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>66.44383999999999</v>
+        <v>401.5641</v>
       </c>
       <c r="C7">
-        <v>19.41394924833142</v>
+        <v>79.09896253913946</v>
       </c>
       <c r="D7">
-        <v>2.615506499185058</v>
+        <v>19.53304469022397</v>
       </c>
       <c r="E7">
-        <v>0.2031499999999999</v>
+        <v>0.2538</v>
       </c>
       <c r="F7">
-        <v>13.902326052042</v>
+        <v>9.455357830494</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1090,22 +1090,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>87.4605</v>
+        <v>332.018</v>
       </c>
       <c r="C8">
-        <v>44.18472502556676</v>
+        <v>109.7418426037188</v>
       </c>
       <c r="D8">
-        <v>3.629207777963745</v>
+        <v>18.9243217413395</v>
       </c>
       <c r="E8">
-        <v>0.08285000000000009</v>
+        <v>0.1738499999999998</v>
       </c>
       <c r="F8">
-        <v>35.42129423128799</v>
+        <v>30.375760436134</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1113,19 +1113,19 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>685.4801</v>
+        <v>221.585</v>
       </c>
       <c r="C9">
-        <v>136.6523719630104</v>
+        <v>67.89254649460887</v>
       </c>
       <c r="D9">
-        <v>24.65848833021331</v>
+        <v>11.51414134497899</v>
       </c>
       <c r="E9">
-        <v>0.2092499999999999</v>
+        <v>0.1710000000000003</v>
       </c>
       <c r="F9">
-        <v>9.790172238433</v>
+        <v>14.422622133465</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1136,22 +1136,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>94.33868</v>
+        <v>685.4801</v>
       </c>
       <c r="C10">
-        <v>40.44917723619881</v>
+        <v>136.6523719630104</v>
       </c>
       <c r="D10">
-        <v>15.00000888308544</v>
+        <v>24.65848833021331</v>
       </c>
       <c r="E10">
-        <v>0.3863500000000002</v>
+        <v>0.2092499999999999</v>
       </c>
       <c r="F10">
-        <v>42.321713677752</v>
+        <v>9.790172238433</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1159,22 +1159,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>533.778</v>
+        <v>361.0592</v>
       </c>
       <c r="C11">
-        <v>82.86029109083542</v>
+        <v>68.25319612028957</v>
       </c>
       <c r="D11">
-        <v>20.34175887100429</v>
+        <v>24.01438048268131</v>
       </c>
       <c r="E11">
-        <v>0.2472000000000003</v>
+        <v>0.3754</v>
       </c>
       <c r="F11">
-        <v>35.40925741609</v>
+        <v>8.411899851425</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1182,22 +1182,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>177.259</v>
+        <v>500.5334</v>
       </c>
       <c r="C12">
-        <v>26.01392618726424</v>
+        <v>158.5534565012889</v>
       </c>
       <c r="D12">
-        <v>12.42631844132031</v>
+        <v>25.06667065763693</v>
       </c>
       <c r="E12">
-        <v>0.48325</v>
+        <v>0.15855</v>
       </c>
       <c r="F12">
-        <v>15.076362716362</v>
+        <v>16.628571336836</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1205,22 +1205,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>78.67171999999999</v>
+        <v>356.4738</v>
       </c>
       <c r="C13">
-        <v>47.36583298176905</v>
+        <v>74.394845974294</v>
       </c>
       <c r="D13">
-        <v>0.8590615964861354</v>
+        <v>19.02230072921007</v>
       </c>
       <c r="E13">
-        <v>0.01845000000000052</v>
+        <v>0.2846499999999992</v>
       </c>
       <c r="F13">
-        <v>75.61542265945499</v>
+        <v>11.329394838197</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1228,22 +1228,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>135.6078</v>
+        <v>173.0556</v>
       </c>
       <c r="C14">
-        <v>21.02653963558872</v>
+        <v>46.45311420248726</v>
       </c>
       <c r="D14">
-        <v>20.22390614026714</v>
+        <v>8.27967901971185</v>
       </c>
       <c r="E14">
-        <v>0.9789999999999992</v>
+        <v>0.1797500000000003</v>
       </c>
       <c r="F14">
-        <v>10.5665274773</v>
+        <v>26.292341130117</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1251,22 +1251,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>247.1871</v>
+        <v>539.8919</v>
       </c>
       <c r="C15">
-        <v>129.1236765402469</v>
+        <v>100.9842248061106</v>
       </c>
       <c r="D15">
-        <v>11.78190343874608</v>
+        <v>13.69288289113247</v>
       </c>
       <c r="E15">
-        <v>0.09159999999999968</v>
+        <v>0.1365499999999997</v>
       </c>
       <c r="F15">
-        <v>52.190451029014</v>
+        <v>44.995445522556</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1274,22 +1274,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>548.2986</v>
+        <v>135.6078</v>
       </c>
       <c r="C16">
-        <v>91.52599470573576</v>
+        <v>21.02653963558872</v>
       </c>
       <c r="D16">
-        <v>15.20642083425662</v>
+        <v>20.22390614026714</v>
       </c>
       <c r="E16">
-        <v>0.1674500000000001</v>
+        <v>0.9789999999999992</v>
       </c>
       <c r="F16">
-        <v>29.659172027433</v>
+        <v>10.5665274773</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1297,22 +1297,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>545.2415999999999</v>
+        <v>331.2538</v>
       </c>
       <c r="C17">
-        <v>106.4393176285672</v>
+        <v>53.46121239503356</v>
       </c>
       <c r="D17">
-        <v>15.69382325977853</v>
+        <v>16.77555660159711</v>
       </c>
       <c r="E17">
-        <v>0.1511999999999998</v>
+        <v>0.3165</v>
       </c>
       <c r="F17">
-        <v>36.582939074142</v>
+        <v>13.920744288437</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1320,22 +1320,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>286.5456</v>
+        <v>330.8717</v>
       </c>
       <c r="C18">
-        <v>112.5933292511249</v>
+        <v>98.10866725756316</v>
       </c>
       <c r="D18">
-        <v>18.12703919477511</v>
+        <v>19.29256617989016</v>
       </c>
       <c r="E18">
-        <v>0.1620999999999997</v>
+        <v>0.2233499999999999</v>
       </c>
       <c r="F18">
-        <v>24.830081620069</v>
+        <v>10.2557866926</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>496.7122</v>
+        <v>513.9077</v>
       </c>
       <c r="C19">
-        <v>344.4936827469944</v>
+        <v>157.4191369457926</v>
       </c>
       <c r="D19">
-        <v>7.921622828949283</v>
+        <v>13.81300197038578</v>
       </c>
       <c r="E19">
-        <v>0.0233500000000002</v>
+        <v>0.08815000000000017</v>
       </c>
       <c r="F19">
-        <v>484.776199631777</v>
+        <v>43.408348150351</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1366,19 +1366,19 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>528.8104</v>
+        <v>304.8874</v>
       </c>
       <c r="C20">
-        <v>182.873082142301</v>
+        <v>137.2665908247376</v>
       </c>
       <c r="D20">
-        <v>32.26751418708503</v>
+        <v>8.091221634019032</v>
       </c>
       <c r="E20">
-        <v>0.1788499999999997</v>
+        <v>0.05920000000000014</v>
       </c>
       <c r="F20">
-        <v>11.880108479507</v>
+        <v>70.19607198504301</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1389,22 +1389,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>154.7138</v>
+        <v>605.2346</v>
       </c>
       <c r="C21">
-        <v>64.1929110606898</v>
+        <v>182.146362549711</v>
       </c>
       <c r="D21">
-        <v>20.8461369289508</v>
+        <v>28.36858625730796</v>
       </c>
       <c r="E21">
-        <v>0.3345000000000002</v>
+        <v>0.1564000000000001</v>
       </c>
       <c r="F21">
-        <v>7.543911164154</v>
+        <v>18.588590690642</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1412,22 +1412,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>65.67959999999999</v>
+        <v>63.38687</v>
       </c>
       <c r="C22">
-        <v>27.26490179244471</v>
+        <v>31.40870802264305</v>
       </c>
       <c r="D22">
-        <v>8.679280538220221</v>
+        <v>6.659729568669844</v>
       </c>
       <c r="E22">
-        <v>0.3210000000000015</v>
+        <v>0.2277</v>
       </c>
       <c r="F22">
-        <v>14.413336591094</v>
+        <v>7.828745132287</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1435,22 +1435,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>130.2581</v>
+        <v>623.5764</v>
       </c>
       <c r="C23">
-        <v>65.99960776165241</v>
+        <v>159.8659216194694</v>
       </c>
       <c r="D23">
-        <v>16.38345317631583</v>
+        <v>23.95540837783533</v>
       </c>
       <c r="E23">
-        <v>0.2519499999999999</v>
+        <v>0.1503999999999999</v>
       </c>
       <c r="F23">
-        <v>122.925994287735</v>
+        <v>15.15817484336</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1458,22 +1458,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>121.4693</v>
+        <v>88.60687</v>
       </c>
       <c r="C24">
-        <v>32.83178308972803</v>
+        <v>67.32193224793895</v>
       </c>
       <c r="D24">
-        <v>6.779300060033613</v>
+        <v>2.109495686288599</v>
       </c>
       <c r="E24">
-        <v>0.20845</v>
+        <v>0.03150000000000119</v>
       </c>
       <c r="F24">
-        <v>12.128870404498</v>
+        <v>87.80898818573799</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1481,22 +1481,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>298.0092</v>
+        <v>323.9935</v>
       </c>
       <c r="C25">
-        <v>189.0555083562999</v>
+        <v>61.06687898776909</v>
       </c>
       <c r="D25">
-        <v>5.982933840031627</v>
+        <v>10.4204720616906</v>
       </c>
       <c r="E25">
-        <v>0.03174999999999972</v>
+        <v>0.3237000000000001</v>
       </c>
       <c r="F25">
-        <v>260.501325405273</v>
+        <v>56.715984443966</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1504,22 +1504,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>617.8446</v>
+        <v>453.9147</v>
       </c>
       <c r="C26">
-        <v>161.5894077192282</v>
+        <v>107.7927783390557</v>
       </c>
       <c r="D26">
-        <v>22.56537756799965</v>
+        <v>27.29246042098188</v>
       </c>
       <c r="E26">
-        <v>0.1405500000000002</v>
+        <v>0.2548000000000004</v>
       </c>
       <c r="F26">
-        <v>12.810763311423</v>
+        <v>61.186223840438</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1527,19 +1527,19 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>189.869</v>
+        <v>171.5271</v>
       </c>
       <c r="C27">
-        <v>35.81643066567098</v>
+        <v>35.33500810528919</v>
       </c>
       <c r="D27">
-        <v>13.58109286254407</v>
+        <v>14.31906780166277</v>
       </c>
       <c r="E27">
-        <v>0.3838999999999997</v>
+        <v>0.4598499999999999</v>
       </c>
       <c r="F27">
-        <v>20.461246067306</v>
+        <v>9.839962613494</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1550,22 +1550,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>669.0488</v>
+        <v>355.7095</v>
       </c>
       <c r="C28">
-        <v>152.5838812674178</v>
+        <v>73.16774677846539</v>
       </c>
       <c r="D28">
-        <v>24.26029180408571</v>
+        <v>9.975847979679191</v>
       </c>
       <c r="E28">
-        <v>0.1597499999999998</v>
+        <v>0.1373500000000001</v>
       </c>
       <c r="F28">
-        <v>10.906347674336</v>
+        <v>28.4902657913</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1573,22 +1573,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>477.9883</v>
+        <v>139.0469</v>
       </c>
       <c r="C29">
-        <v>64.91988166118968</v>
+        <v>46.86899500642912</v>
       </c>
       <c r="D29">
-        <v>14.38888690502454</v>
+        <v>16.61228979770028</v>
       </c>
       <c r="E29">
-        <v>0.2239500000000003</v>
+        <v>0.3578000000000001</v>
       </c>
       <c r="F29">
-        <v>31.394425563062</v>
+        <v>20.546459070472</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1596,22 +1596,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>651.0892</v>
+        <v>216.9996</v>
       </c>
       <c r="C30">
-        <v>399.298577770545</v>
+        <v>44.05341645032316</v>
       </c>
       <c r="D30">
-        <v>19.94356668420395</v>
+        <v>18.03051273759965</v>
       </c>
       <c r="E30">
-        <v>0.05025000000000013</v>
+        <v>0.4136499999999996</v>
       </c>
       <c r="F30">
-        <v>187.48104669547</v>
+        <v>20.947455852351</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1619,19 +1619,19 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>539.5098</v>
+        <v>209.3571</v>
       </c>
       <c r="C31">
-        <v>307.6867953916926</v>
+        <v>38.33955682155735</v>
       </c>
       <c r="D31">
-        <v>9.214735752825758</v>
+        <v>14.22731373051469</v>
       </c>
       <c r="E31">
-        <v>0.03000000000000025</v>
+        <v>0.3756499999999998</v>
       </c>
       <c r="F31">
-        <v>88.965512608721</v>
+        <v>19.660207804985</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1642,22 +1642,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>486.7771</v>
+        <v>572.7542999999999</v>
       </c>
       <c r="C32">
-        <v>195.9744912510671</v>
+        <v>62.23969894286335</v>
       </c>
       <c r="D32">
-        <v>33.70714109719603</v>
+        <v>17.25837885316417</v>
       </c>
       <c r="E32">
-        <v>0.1742500000000002</v>
+        <v>0.2817000000000007</v>
       </c>
       <c r="F32">
-        <v>15.541899750195</v>
+        <v>13.984330336841</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1665,19 +1665,19 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>100.4526</v>
+        <v>216.2353</v>
       </c>
       <c r="C33">
-        <v>34.1634386316789</v>
+        <v>133.2237691355287</v>
       </c>
       <c r="D33">
-        <v>7.747823085030426</v>
+        <v>3.049700418545413</v>
       </c>
       <c r="E33">
-        <v>0.3242499999999997</v>
+        <v>0.02299999999999969</v>
       </c>
       <c r="F33">
-        <v>5.647903187014</v>
+        <v>216.213284663913</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1688,22 +1688,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>15.23961</v>
+        <v>286.5456</v>
       </c>
       <c r="C34">
-        <v>11.57642661717099</v>
+        <v>112.5933292511249</v>
       </c>
       <c r="D34">
-        <v>3.393793923483115</v>
+        <v>18.12703919477511</v>
       </c>
       <c r="E34">
-        <v>0.3701000000000008</v>
+        <v>0.1620999999999997</v>
       </c>
       <c r="F34">
-        <v>12.490546928392</v>
+        <v>24.830081620069</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1711,22 +1711,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>149.3641</v>
+        <v>564.3477</v>
       </c>
       <c r="C35">
-        <v>43.37194541151111</v>
+        <v>79.32638337986884</v>
       </c>
       <c r="D35">
-        <v>16.03194539737906</v>
+        <v>17.61778329964186</v>
       </c>
       <c r="E35">
-        <v>0.4188499999999999</v>
+        <v>0.22315</v>
       </c>
       <c r="F35">
-        <v>9.502358720452001</v>
+        <v>32.381405040157</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1734,22 +1734,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>383.9865</v>
+        <v>370.9944</v>
       </c>
       <c r="C36">
-        <v>135.5257306211121</v>
+        <v>73.5478472981591</v>
       </c>
       <c r="D36">
-        <v>23.57412171600902</v>
+        <v>19.73978689078275</v>
       </c>
       <c r="E36">
-        <v>0.1742999999999997</v>
+        <v>0.2803500000000003</v>
       </c>
       <c r="F36">
-        <v>35.656143668827</v>
+        <v>12.545572363174</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1757,22 +1757,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>49.24839</v>
+        <v>69.50081</v>
       </c>
       <c r="C37">
-        <v>20.37068215323809</v>
+        <v>44.30386486264903</v>
       </c>
       <c r="D37">
-        <v>7.07226341808339</v>
+        <v>10.96917103117179</v>
       </c>
       <c r="E37">
-        <v>0.3544</v>
+        <v>0.2485500000000003</v>
       </c>
       <c r="F37">
-        <v>9.894873417495001</v>
+        <v>52.688926902229</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1780,22 +1780,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>212.032</v>
+        <v>345.7744</v>
       </c>
       <c r="C38">
-        <v>51.49527182176154</v>
+        <v>67.32597956519747</v>
       </c>
       <c r="D38">
-        <v>17.96107798239928</v>
+        <v>20.83693692952051</v>
       </c>
       <c r="E38">
-        <v>0.4417</v>
+        <v>0.3266</v>
       </c>
       <c r="F38">
-        <v>8.310217622937</v>
+        <v>11.749766162128</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1803,22 +1803,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>221.585</v>
+        <v>130.2581</v>
       </c>
       <c r="C39">
-        <v>67.89254649460887</v>
+        <v>65.99960776165241</v>
       </c>
       <c r="D39">
-        <v>11.51414134497899</v>
+        <v>16.38345317631583</v>
       </c>
       <c r="E39">
-        <v>0.1710000000000003</v>
+        <v>0.2519499999999999</v>
       </c>
       <c r="F39">
-        <v>14.422622133465</v>
+        <v>122.925994287735</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1826,22 +1826,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>444.3616</v>
+        <v>89.75323</v>
       </c>
       <c r="C40">
-        <v>79.68791101496562</v>
+        <v>24.58794317629236</v>
       </c>
       <c r="D40">
-        <v>12.99265291344988</v>
+        <v>4.496728923626542</v>
       </c>
       <c r="E40">
-        <v>0.2345999999999999</v>
+        <v>0.6834999999999996</v>
       </c>
       <c r="F40">
-        <v>14.951369805214</v>
+        <v>10.601453346604</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1849,22 +1849,22 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>173.4378</v>
+        <v>386.2792</v>
       </c>
       <c r="C41">
-        <v>51.38356551642217</v>
+        <v>160.3936185846438</v>
       </c>
       <c r="D41">
-        <v>17.50329038188801</v>
+        <v>11.57976762496595</v>
       </c>
       <c r="E41">
-        <v>0.3437000000000019</v>
+        <v>0.07284999999999986</v>
       </c>
       <c r="F41">
-        <v>26.282253124084</v>
+        <v>22.394706906666</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1872,22 +1872,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>70.26505</v>
+        <v>149.3641</v>
       </c>
       <c r="C42">
-        <v>36.23167257272408</v>
+        <v>43.37194541151111</v>
       </c>
       <c r="D42">
-        <v>3.673380527173668</v>
+        <v>16.03194539737906</v>
       </c>
       <c r="E42">
-        <v>0.1022499999999997</v>
+        <v>0.4188499999999999</v>
       </c>
       <c r="F42">
-        <v>15.189012011087</v>
+        <v>9.502358720452001</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1895,22 +1895,22 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>445.1259</v>
+        <v>94.33868</v>
       </c>
       <c r="C43">
-        <v>129.50400046126</v>
+        <v>21.51369149811229</v>
       </c>
       <c r="D43">
-        <v>21.54254123029837</v>
+        <v>7.800418435637566</v>
       </c>
       <c r="E43">
-        <v>0.1695000000000002</v>
+        <v>0.3864999999999998</v>
       </c>
       <c r="F43">
-        <v>7.838565644909</v>
+        <v>10.259455059061</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1918,22 +1918,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>288.0741</v>
+        <v>412.2635</v>
       </c>
       <c r="C44">
-        <v>31.86184619709756</v>
+        <v>61.89934360905248</v>
       </c>
       <c r="D44">
-        <v>15.22465359880357</v>
+        <v>11.69547698120216</v>
       </c>
       <c r="E44">
-        <v>0.4832499999999995</v>
+        <v>0.1922000000000006</v>
       </c>
       <c r="F44">
-        <v>17.088186589794</v>
+        <v>14.002748566184</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1941,22 +1941,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>171.5271</v>
+        <v>173.4378</v>
       </c>
       <c r="C45">
-        <v>35.33500810528919</v>
+        <v>51.38356551642217</v>
       </c>
       <c r="D45">
-        <v>14.31906780166277</v>
+        <v>17.50329038188801</v>
       </c>
       <c r="E45">
-        <v>0.4598499999999999</v>
+        <v>0.3437000000000019</v>
       </c>
       <c r="F45">
-        <v>9.839962613494</v>
+        <v>26.282253124084</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1964,22 +1964,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>533.0137</v>
+        <v>155.4781</v>
       </c>
       <c r="C46">
-        <v>142.6780651074481</v>
+        <v>45.60349791387045</v>
       </c>
       <c r="D46">
-        <v>23.36312748628334</v>
+        <v>12.2256884336151</v>
       </c>
       <c r="E46">
-        <v>0.17035</v>
+        <v>0.2683</v>
       </c>
       <c r="F46">
-        <v>10.979409225616</v>
+        <v>17.918953871349</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1987,22 +1987,22 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>396.2144</v>
+        <v>463.0856</v>
       </c>
       <c r="C47">
-        <v>42.94209894867426</v>
+        <v>67.72805777247788</v>
       </c>
       <c r="D47">
-        <v>18.72441892067446</v>
+        <v>19.03790484725771</v>
       </c>
       <c r="E47">
-        <v>0.4539499999999999</v>
+        <v>0.2829500000000005</v>
       </c>
       <c r="F47">
-        <v>9.093336399196</v>
+        <v>22.800212716448</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2010,22 +2010,22 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>88.60687</v>
+        <v>435.955</v>
       </c>
       <c r="C48">
-        <v>67.32193224793895</v>
+        <v>126.960541762648</v>
       </c>
       <c r="D48">
-        <v>2.109495686288599</v>
+        <v>26.74966720732355</v>
       </c>
       <c r="E48">
-        <v>0.03150000000000119</v>
+        <v>0.2121999999999997</v>
       </c>
       <c r="F48">
-        <v>87.80898818573799</v>
+        <v>69.200953327432</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2033,19 +2033,19 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>461.175</v>
+        <v>339.2783</v>
       </c>
       <c r="C49">
-        <v>134.7390141816624</v>
+        <v>83.72476844077349</v>
       </c>
       <c r="D49">
-        <v>29.15030824831808</v>
+        <v>18.98412791635295</v>
       </c>
       <c r="E49">
-        <v>0.2180500000000003</v>
+        <v>0.2301000000000002</v>
       </c>
       <c r="F49">
-        <v>11.2689431916</v>
+        <v>9.839733348822</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2056,22 +2056,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>271.2608</v>
+        <v>213.9426</v>
       </c>
       <c r="C50">
-        <v>36.23763835887389</v>
+        <v>45.053182376365</v>
       </c>
       <c r="D50">
-        <v>12.42174426935244</v>
+        <v>7.971738199984239</v>
       </c>
       <c r="E50">
-        <v>0.3459499999999998</v>
+        <v>0.2988</v>
       </c>
       <c r="F50">
-        <v>14.757598390525</v>
+        <v>18.192523270968</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2079,22 +2079,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>401.5641</v>
+        <v>57.65506</v>
       </c>
       <c r="C51">
-        <v>79.09896253913946</v>
+        <v>22.58269586107771</v>
       </c>
       <c r="D51">
-        <v>19.53304469022397</v>
+        <v>7.831231688144143</v>
       </c>
       <c r="E51">
-        <v>0.2538</v>
+        <v>0.3529500000000008</v>
       </c>
       <c r="F51">
-        <v>9.455357830494</v>
+        <v>16.39609105211</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2102,19 +2102,19 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>582.6895</v>
+        <v>189.869</v>
       </c>
       <c r="C52">
-        <v>183.31773589879</v>
+        <v>35.81643066567098</v>
       </c>
       <c r="D52">
-        <v>19.85289409094402</v>
+        <v>13.58109286254407</v>
       </c>
       <c r="E52">
-        <v>0.1096000000000004</v>
+        <v>0.3838999999999997</v>
       </c>
       <c r="F52">
-        <v>12.91959139879</v>
+        <v>20.461246067306</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2125,22 +2125,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>249.4799</v>
+        <v>94.33868</v>
       </c>
       <c r="C53">
-        <v>150.1052849587822</v>
+        <v>40.44917723619881</v>
       </c>
       <c r="D53">
-        <v>12.66818250814375</v>
+        <v>15.00000888308544</v>
       </c>
       <c r="E53">
-        <v>0.08495000000000008</v>
+        <v>0.3863500000000002</v>
       </c>
       <c r="F53">
-        <v>82.852642549422</v>
+        <v>42.321713677752</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2148,22 +2148,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>401.9462</v>
+        <v>516.9646</v>
       </c>
       <c r="C54">
-        <v>139.7169385645282</v>
+        <v>127.4651711789831</v>
       </c>
       <c r="D54">
-        <v>15.193628755278</v>
+        <v>22.28029213306621</v>
       </c>
       <c r="E54">
-        <v>0.1096499999999994</v>
+        <v>0.1755</v>
       </c>
       <c r="F54">
-        <v>49.596266788896</v>
+        <v>20.802440900665</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2171,22 +2171,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>471.1101</v>
+        <v>539.5098</v>
       </c>
       <c r="C55">
-        <v>119.5151269479659</v>
+        <v>307.6867953916926</v>
       </c>
       <c r="D55">
-        <v>21.59589510209119</v>
+        <v>9.214735752825758</v>
       </c>
       <c r="E55">
-        <v>0.1818</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F55">
-        <v>27.726436125055</v>
+        <v>88.965512608721</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2194,22 +2194,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>468.8174</v>
+        <v>49.24839</v>
       </c>
       <c r="C56">
-        <v>136.7058170585252</v>
+        <v>20.37068215323809</v>
       </c>
       <c r="D56">
-        <v>24.20996607677439</v>
+        <v>7.07226341808339</v>
       </c>
       <c r="E56">
-        <v>0.1780499999999998</v>
+        <v>0.3544</v>
       </c>
       <c r="F56">
-        <v>14.019905808384</v>
+        <v>9.894873417495001</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2217,22 +2217,22 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>633.1295</v>
+        <v>247.5693</v>
       </c>
       <c r="C57">
-        <v>160.0328941791778</v>
+        <v>39.54282474937049</v>
       </c>
       <c r="D57">
-        <v>20.23482634392021</v>
+        <v>18.79817591532851</v>
       </c>
       <c r="E57">
-        <v>0.1268500000000001</v>
+        <v>0.4803499999999996</v>
       </c>
       <c r="F57">
-        <v>98.50127073631501</v>
+        <v>14.435919944259</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2240,22 +2240,22 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>345.7744</v>
+        <v>164.2668</v>
       </c>
       <c r="C58">
-        <v>67.32597956519747</v>
+        <v>80.60029559756515</v>
       </c>
       <c r="D58">
-        <v>20.83693692952051</v>
+        <v>13.28219971728678</v>
       </c>
       <c r="E58">
-        <v>0.3266</v>
+        <v>0.1655000000000002</v>
       </c>
       <c r="F58">
-        <v>11.749766162128</v>
+        <v>65.21099083907001</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2263,22 +2263,22 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>206.6823</v>
+        <v>274.3177</v>
       </c>
       <c r="C59">
-        <v>83.14327740349665</v>
+        <v>84.85849975321671</v>
       </c>
       <c r="D59">
-        <v>10.91613421968773</v>
+        <v>21.68929443014104</v>
       </c>
       <c r="E59">
-        <v>0.1323000000000003</v>
+        <v>0.2565999999999997</v>
       </c>
       <c r="F59">
-        <v>41.940701827716</v>
+        <v>29.677130622935</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2286,22 +2286,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>184.1371</v>
+        <v>533.778</v>
       </c>
       <c r="C60">
-        <v>39.19134671697552</v>
+        <v>82.86029109083542</v>
       </c>
       <c r="D60">
-        <v>9.007646820928109</v>
+        <v>20.34175887100429</v>
       </c>
       <c r="E60">
-        <v>0.2326999999999999</v>
+        <v>0.2472000000000003</v>
       </c>
       <c r="F60">
-        <v>13.314588874252</v>
+        <v>35.40925741609</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2309,22 +2309,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>453.9147</v>
+        <v>114.5911</v>
       </c>
       <c r="C61">
-        <v>107.7927783390557</v>
+        <v>88.98741697771599</v>
       </c>
       <c r="D61">
-        <v>27.29246042098188</v>
+        <v>2.890990149463884</v>
       </c>
       <c r="E61">
-        <v>0.2548000000000004</v>
+        <v>0.03284999999999982</v>
       </c>
       <c r="F61">
-        <v>61.186223840438</v>
+        <v>108.759561237716</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2332,22 +2332,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>274.3177</v>
+        <v>142.4859</v>
       </c>
       <c r="C62">
-        <v>84.85849975321671</v>
+        <v>42.23678329648089</v>
       </c>
       <c r="D62">
-        <v>21.68929443014104</v>
+        <v>20.53297800301148</v>
       </c>
       <c r="E62">
-        <v>0.2565999999999997</v>
+        <v>0.5035999999999996</v>
       </c>
       <c r="F62">
-        <v>29.677130622935</v>
+        <v>9.830294953994001</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2355,19 +2355,19 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>352.6526</v>
+        <v>87.4605</v>
       </c>
       <c r="C63">
-        <v>89.56520359464191</v>
+        <v>38.28633660508022</v>
       </c>
       <c r="D63">
-        <v>17.21837675128432</v>
+        <v>2.256447570985428</v>
       </c>
       <c r="E63">
-        <v>0.1934</v>
+        <v>0.05955000000000021</v>
       </c>
       <c r="F63">
-        <v>21.563250711677</v>
+        <v>29.363373180992</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -2378,22 +2378,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>240.309</v>
+        <v>649.9428</v>
       </c>
       <c r="C64">
-        <v>138.4015801755273</v>
+        <v>153.643362477108</v>
       </c>
       <c r="D64">
-        <v>1.929820950535349</v>
+        <v>18.22155545281624</v>
       </c>
       <c r="E64">
-        <v>0.01405000000000012</v>
+        <v>0.1191500000000003</v>
       </c>
       <c r="F64">
-        <v>232.947065265133</v>
+        <v>39.987943875506</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2401,22 +2401,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>441.6868</v>
+        <v>615.1698</v>
       </c>
       <c r="C65">
-        <v>92.88253353544398</v>
+        <v>102.6233364909915</v>
       </c>
       <c r="D65">
-        <v>19.47683250283641</v>
+        <v>19.98011305357166</v>
       </c>
       <c r="E65">
-        <v>0.2114499999999997</v>
+        <v>0.2189000000000001</v>
       </c>
       <c r="F65">
-        <v>39.826190923856</v>
+        <v>34.218943487653</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2424,19 +2424,19 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>353.4168</v>
+        <v>237.6341</v>
       </c>
       <c r="C66">
-        <v>116.2883230493033</v>
+        <v>66.08973691473743</v>
       </c>
       <c r="D66">
-        <v>17.09973156951947</v>
+        <v>24.09896935286428</v>
       </c>
       <c r="E66">
-        <v>0.1482000000000001</v>
+        <v>0.3681999999999999</v>
       </c>
       <c r="F66">
-        <v>21.363517111527</v>
+        <v>15.930171894444</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -2447,22 +2447,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>370.2301</v>
+        <v>271.2608</v>
       </c>
       <c r="C67">
-        <v>51.89086226991598</v>
+        <v>36.23763835887389</v>
       </c>
       <c r="D67">
-        <v>17.17807594937024</v>
+        <v>12.42174426935244</v>
       </c>
       <c r="E67">
-        <v>0.3429500000000001</v>
+        <v>0.3459499999999998</v>
       </c>
       <c r="F67">
-        <v>9.026465208897999</v>
+        <v>14.757598390525</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2470,22 +2470,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>290.3668</v>
+        <v>288.0741</v>
       </c>
       <c r="C68">
-        <v>31.9444073748671</v>
+        <v>31.86184619709756</v>
       </c>
       <c r="D68">
-        <v>15.24501646971653</v>
+        <v>15.22465359880357</v>
       </c>
       <c r="E68">
-        <v>0.4830999999999999</v>
+        <v>0.4832499999999995</v>
       </c>
       <c r="F68">
-        <v>16.68141977581</v>
+        <v>17.088186589794</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2493,22 +2493,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>463.0856</v>
+        <v>65.67959999999999</v>
       </c>
       <c r="C69">
-        <v>67.72805777247788</v>
+        <v>27.26490179244471</v>
       </c>
       <c r="D69">
-        <v>19.03790484725771</v>
+        <v>8.679280538220221</v>
       </c>
       <c r="E69">
-        <v>0.2829500000000005</v>
+        <v>0.3210000000000015</v>
       </c>
       <c r="F69">
-        <v>22.800212716448</v>
+        <v>14.413336591094</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2516,22 +2516,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>63.38687</v>
+        <v>101.9811</v>
       </c>
       <c r="C70">
-        <v>31.40870802264305</v>
+        <v>39.74292828473595</v>
       </c>
       <c r="D70">
-        <v>6.659729568669844</v>
+        <v>5.036915596717613</v>
       </c>
       <c r="E70">
-        <v>0.2277</v>
+        <v>0.1277499999999998</v>
       </c>
       <c r="F70">
-        <v>7.828745132287</v>
+        <v>49.560805953375</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2539,22 +2539,22 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>141.3396</v>
+        <v>247.1871</v>
       </c>
       <c r="C71">
-        <v>62.58874420562054</v>
+        <v>129.1236765402469</v>
       </c>
       <c r="D71">
-        <v>11.31866211229383</v>
+        <v>11.78190343874608</v>
       </c>
       <c r="E71">
-        <v>0.1825999999999999</v>
+        <v>0.09159999999999968</v>
       </c>
       <c r="F71">
-        <v>28.205233852842</v>
+        <v>52.190451029014</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2562,22 +2562,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>370.9944</v>
+        <v>217.3817</v>
       </c>
       <c r="C72">
-        <v>73.5478472981591</v>
+        <v>42.68738672672669</v>
       </c>
       <c r="D72">
-        <v>19.73978689078275</v>
+        <v>19.83842108572965</v>
       </c>
       <c r="E72">
-        <v>0.2803500000000003</v>
+        <v>0.4788000000000001</v>
       </c>
       <c r="F72">
-        <v>12.545572363174</v>
+        <v>10.264728331568</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2585,19 +2585,19 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>175.3484</v>
+        <v>210.1214</v>
       </c>
       <c r="C73">
-        <v>97.80659554195182</v>
+        <v>60.30044288300217</v>
       </c>
       <c r="D73">
-        <v>1.134085689212561</v>
+        <v>17.62235139357325</v>
       </c>
       <c r="E73">
-        <v>0.01184999999999903</v>
+        <v>0.3130499999999996</v>
       </c>
       <c r="F73">
-        <v>173.346291481607</v>
+        <v>8.29653768266</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2608,22 +2608,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>417.6132</v>
+        <v>177.259</v>
       </c>
       <c r="C74">
-        <v>54.71629060197983</v>
+        <v>26.01392618726424</v>
       </c>
       <c r="D74">
-        <v>20.9858873831305</v>
+        <v>12.42631844132031</v>
       </c>
       <c r="E74">
-        <v>0.3897499999999998</v>
+        <v>0.48325</v>
       </c>
       <c r="F74">
-        <v>22.954358177133</v>
+        <v>15.076362716362</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2631,22 +2631,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>284.635</v>
+        <v>461.175</v>
       </c>
       <c r="C75">
-        <v>35.92347193654207</v>
+        <v>134.7390141816624</v>
       </c>
       <c r="D75">
-        <v>22.37962529381761</v>
+        <v>29.15030824831808</v>
       </c>
       <c r="E75">
-        <v>0.6302500000000002</v>
+        <v>0.2180500000000003</v>
       </c>
       <c r="F75">
-        <v>17.393538462144</v>
+        <v>11.2689431916</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2654,19 +2654,19 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>213.9426</v>
+        <v>66.44383999999999</v>
       </c>
       <c r="C76">
-        <v>146.7119009662394</v>
+        <v>19.41394924833142</v>
       </c>
       <c r="D76">
-        <v>8.149079917288482</v>
+        <v>2.615506499185058</v>
       </c>
       <c r="E76">
-        <v>0.05604999999999993</v>
+        <v>0.2031499999999999</v>
       </c>
       <c r="F76">
-        <v>103.020462722315</v>
+        <v>13.902326052042</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2677,22 +2677,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>649.9428</v>
+        <v>494.0374</v>
       </c>
       <c r="C77">
-        <v>153.643362477108</v>
+        <v>185.8731025323054</v>
       </c>
       <c r="D77">
-        <v>18.22155545281624</v>
+        <v>19.95299104597121</v>
       </c>
       <c r="E77">
-        <v>0.1191500000000003</v>
+        <v>0.1079499999999998</v>
       </c>
       <c r="F77">
-        <v>39.987943875506</v>
+        <v>19.283246435426</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2700,22 +2700,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>94.33868</v>
+        <v>484.8665</v>
       </c>
       <c r="C78">
-        <v>21.51369149811229</v>
+        <v>188.2553141271578</v>
       </c>
       <c r="D78">
-        <v>7.800418435637566</v>
+        <v>23.46538287761224</v>
       </c>
       <c r="E78">
-        <v>0.3864999999999998</v>
+        <v>0.1249499999999997</v>
       </c>
       <c r="F78">
-        <v>10.259455059061</v>
+        <v>25.068448759729</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2723,22 +2723,22 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>458.8822</v>
+        <v>175.3484</v>
       </c>
       <c r="C79">
-        <v>66.81713846343951</v>
+        <v>97.80659554195182</v>
       </c>
       <c r="D79">
-        <v>18.63814394241831</v>
+        <v>1.134085689212561</v>
       </c>
       <c r="E79">
-        <v>0.2817499999999997</v>
+        <v>0.01184999999999903</v>
       </c>
       <c r="F79">
-        <v>19.107547162848</v>
+        <v>173.346291481607</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2746,22 +2746,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>615.1698</v>
+        <v>70.26505</v>
       </c>
       <c r="C80">
-        <v>102.6233364909915</v>
+        <v>36.23167257272408</v>
       </c>
       <c r="D80">
-        <v>19.98011305357166</v>
+        <v>3.673380527173668</v>
       </c>
       <c r="E80">
-        <v>0.2189000000000001</v>
+        <v>0.1022499999999997</v>
       </c>
       <c r="F80">
-        <v>34.218943487653</v>
+        <v>15.189012011087</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2769,22 +2769,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>509.3222</v>
+        <v>213.9426</v>
       </c>
       <c r="C81">
-        <v>61.06060027122653</v>
+        <v>146.7119009662394</v>
       </c>
       <c r="D81">
-        <v>17.81394426213244</v>
+        <v>8.149079917288482</v>
       </c>
       <c r="E81">
-        <v>0.3063500000000001</v>
+        <v>0.05604999999999993</v>
       </c>
       <c r="F81">
-        <v>10.099460958116</v>
+        <v>103.020462722315</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2792,19 +2792,19 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>165.0311</v>
+        <v>70.26505</v>
       </c>
       <c r="C82">
-        <v>112.745715985182</v>
+        <v>38.24756654501316</v>
       </c>
       <c r="D82">
-        <v>2.254178740375881</v>
+        <v>1.16598425070188</v>
       </c>
       <c r="E82">
-        <v>0.0202</v>
+        <v>0.03160000000000007</v>
       </c>
       <c r="F82">
-        <v>164.311961555182</v>
+        <v>67.12026342042299</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2815,22 +2815,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>154.3317</v>
+        <v>420.6701</v>
       </c>
       <c r="C83">
-        <v>49.26771087801783</v>
+        <v>290.8608050329468</v>
       </c>
       <c r="D83">
-        <v>23.54946299324619</v>
+        <v>13.21805905679172</v>
       </c>
       <c r="E83">
-        <v>0.4824500000000009</v>
+        <v>0.04565000000000019</v>
       </c>
       <c r="F83">
-        <v>30.308546426658</v>
+        <v>212.989183114355</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2838,19 +2838,19 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>513.9077</v>
+        <v>548.2986</v>
       </c>
       <c r="C84">
-        <v>157.4191369457926</v>
+        <v>91.52599470573576</v>
       </c>
       <c r="D84">
-        <v>13.81300197038578</v>
+        <v>15.20642083425662</v>
       </c>
       <c r="E84">
-        <v>0.08815000000000017</v>
+        <v>0.1674500000000001</v>
       </c>
       <c r="F84">
-        <v>43.408348150351</v>
+        <v>29.659172027433</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2861,22 +2861,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>150.1284</v>
+        <v>441.6868</v>
       </c>
       <c r="C85">
-        <v>73.39542503130163</v>
+        <v>92.88253353544398</v>
       </c>
       <c r="D85">
-        <v>3.720483355091196</v>
+        <v>19.47683250283641</v>
       </c>
       <c r="E85">
-        <v>0.05120000000000013</v>
+        <v>0.2114499999999997</v>
       </c>
       <c r="F85">
-        <v>18.643577915917</v>
+        <v>39.826190923856</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2884,22 +2884,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>370.9944</v>
+        <v>352.6526</v>
       </c>
       <c r="C86">
-        <v>73.5478472981591</v>
+        <v>89.56520359464191</v>
       </c>
       <c r="D86">
-        <v>19.73978689078275</v>
+        <v>17.21837675128432</v>
       </c>
       <c r="E86">
-        <v>0.2803500000000003</v>
+        <v>0.1934</v>
       </c>
       <c r="F86">
-        <v>12.545572363174</v>
+        <v>21.563250711677</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2907,22 +2907,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>349.5956</v>
+        <v>417.6132</v>
       </c>
       <c r="C87">
-        <v>97.06090198110815</v>
+        <v>54.71629060197983</v>
       </c>
       <c r="D87">
-        <v>20.31917550415859</v>
+        <v>20.9858873831305</v>
       </c>
       <c r="E87">
-        <v>0.2106999999999997</v>
+        <v>0.3897499999999998</v>
       </c>
       <c r="F87">
-        <v>22.714387228063</v>
+        <v>22.954358177133</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2930,22 +2930,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>234.195</v>
+        <v>366.791</v>
       </c>
       <c r="C88">
-        <v>66.10929123063478</v>
+        <v>50.80516875513344</v>
       </c>
       <c r="D88">
-        <v>11.74364067915697</v>
+        <v>17.30894229755484</v>
       </c>
       <c r="E88">
-        <v>0.1797</v>
+        <v>0.3564499999999953</v>
       </c>
       <c r="F88">
-        <v>51.901329306064</v>
+        <v>8.720309882664999</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2953,19 +2953,19 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>339.2783</v>
+        <v>432.5159</v>
       </c>
       <c r="C89">
-        <v>83.72476844077349</v>
+        <v>98.85760089666198</v>
       </c>
       <c r="D89">
-        <v>18.98412791635295</v>
+        <v>24.931226849159</v>
       </c>
       <c r="E89">
-        <v>0.2301000000000002</v>
+        <v>0.2538500000000004</v>
       </c>
       <c r="F89">
-        <v>9.839733348822</v>
+        <v>16.258909583022</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -2976,22 +2976,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>346.5386</v>
+        <v>280.0495</v>
       </c>
       <c r="C90">
-        <v>158.7493304506455</v>
+        <v>161.8966995005703</v>
       </c>
       <c r="D90">
-        <v>18.23179645958636</v>
+        <v>9.551260712429299</v>
       </c>
       <c r="E90">
-        <v>0.1155499999999998</v>
+        <v>0.05940000000000012</v>
       </c>
       <c r="F90">
-        <v>17.014665405369</v>
+        <v>68.68084158701099</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2999,22 +2999,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>77.52535</v>
+        <v>273.5535</v>
       </c>
       <c r="C91">
-        <v>60.82590044215029</v>
+        <v>56.82028800371599</v>
       </c>
       <c r="D91">
-        <v>4.743945789084718</v>
+        <v>9.090762592298063</v>
       </c>
       <c r="E91">
-        <v>0.07860000000000023</v>
+        <v>0.2172000000000001</v>
       </c>
       <c r="F91">
-        <v>56.489808060099</v>
+        <v>15.210525429966</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3022,19 +3022,19 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>88.60687</v>
+        <v>468.8174</v>
       </c>
       <c r="C92">
-        <v>25.43110209178104</v>
+        <v>136.7058170585252</v>
       </c>
       <c r="D92">
-        <v>7.10860863682951</v>
+        <v>24.20996607677439</v>
       </c>
       <c r="E92">
-        <v>0.2826</v>
+        <v>0.1780499999999998</v>
       </c>
       <c r="F92">
-        <v>14.074358057619</v>
+        <v>14.019905808384</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -3045,22 +3045,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>238.7805</v>
+        <v>223.1135</v>
       </c>
       <c r="C93">
-        <v>60.97297993091772</v>
+        <v>93.74351949425989</v>
       </c>
       <c r="D93">
-        <v>20.16633000788648</v>
+        <v>18.86062884630702</v>
       </c>
       <c r="E93">
-        <v>0.3438500000000002</v>
+        <v>0.2028000000000003</v>
       </c>
       <c r="F93">
-        <v>9.471024791084</v>
+        <v>33.508543261407</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3068,22 +3068,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>164.2668</v>
+        <v>396.2144</v>
       </c>
       <c r="C94">
-        <v>80.60029559756515</v>
+        <v>42.94209894867426</v>
       </c>
       <c r="D94">
-        <v>13.28219971728678</v>
+        <v>18.72441892067446</v>
       </c>
       <c r="E94">
-        <v>0.1655000000000002</v>
+        <v>0.4539499999999999</v>
       </c>
       <c r="F94">
-        <v>65.21099083907001</v>
+        <v>9.093336399196</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3091,22 +3091,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>217.3817</v>
+        <v>97.39565</v>
       </c>
       <c r="C95">
-        <v>42.68738672672669</v>
+        <v>35.65019021468951</v>
       </c>
       <c r="D95">
-        <v>19.83842108572965</v>
+        <v>8.976233737139893</v>
       </c>
       <c r="E95">
-        <v>0.4788000000000001</v>
+        <v>0.2538</v>
       </c>
       <c r="F95">
-        <v>10.264728331568</v>
+        <v>21.71999787851</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3114,22 +3114,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>69.50081</v>
+        <v>78.67171999999999</v>
       </c>
       <c r="C96">
-        <v>44.30386486264903</v>
+        <v>47.36583298176905</v>
       </c>
       <c r="D96">
-        <v>10.96917103117179</v>
+        <v>0.8590615964861354</v>
       </c>
       <c r="E96">
-        <v>0.2485500000000003</v>
+        <v>0.01845000000000052</v>
       </c>
       <c r="F96">
-        <v>52.688926902229</v>
+        <v>75.61542265945499</v>
       </c>
       <c r="G96">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3137,22 +3137,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>559.3801</v>
+        <v>206.6823</v>
       </c>
       <c r="C97">
-        <v>138.079383567623</v>
+        <v>83.14327740349665</v>
       </c>
       <c r="D97">
-        <v>12.80633034011009</v>
+        <v>10.91613421968773</v>
       </c>
       <c r="E97">
-        <v>0.0987000000000009</v>
+        <v>0.1323000000000003</v>
       </c>
       <c r="F97">
-        <v>40.455162238782</v>
+        <v>41.940701827716</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3160,19 +3160,19 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>359.5307</v>
+        <v>584.218</v>
       </c>
       <c r="C98">
-        <v>48.8611826007733</v>
+        <v>58.8795503261391</v>
       </c>
       <c r="D98">
-        <v>12.41262360936103</v>
+        <v>18.12262275912423</v>
       </c>
       <c r="E98">
-        <v>0.2559499999999999</v>
+        <v>0.3296500000000009</v>
       </c>
       <c r="F98">
-        <v>14.444632308508</v>
+        <v>19.036473727861</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -3183,19 +3183,19 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>209.3571</v>
+        <v>377.4904</v>
       </c>
       <c r="C99">
-        <v>38.33955682155735</v>
+        <v>130.6382005122702</v>
       </c>
       <c r="D99">
-        <v>14.22731373051469</v>
+        <v>8.053360667658094</v>
       </c>
       <c r="E99">
-        <v>0.3756499999999998</v>
+        <v>0.06234999999999991</v>
       </c>
       <c r="F99">
-        <v>19.660207804985</v>
+        <v>14.846517967258</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3206,22 +3206,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>173.0556</v>
+        <v>582.6895</v>
       </c>
       <c r="C100">
-        <v>46.45311420248726</v>
+        <v>183.31773589879</v>
       </c>
       <c r="D100">
-        <v>8.27967901971185</v>
+        <v>19.85289409094402</v>
       </c>
       <c r="E100">
-        <v>0.1797500000000003</v>
+        <v>0.1096000000000004</v>
       </c>
       <c r="F100">
-        <v>26.292341130117</v>
+        <v>12.91959139879</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3229,19 +3229,19 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>123.762</v>
+        <v>87.4605</v>
       </c>
       <c r="C101">
-        <v>99.54152886246821</v>
+        <v>44.18472502556676</v>
       </c>
       <c r="D101">
-        <v>3.319112938612771</v>
+        <v>3.629207777963745</v>
       </c>
       <c r="E101">
-        <v>0.03354999999999997</v>
+        <v>0.08285000000000009</v>
       </c>
       <c r="F101">
-        <v>110.719302010894</v>
+        <v>35.42129423128799</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3252,22 +3252,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>523.4607</v>
+        <v>249.4799</v>
       </c>
       <c r="C102">
-        <v>59.03366478002998</v>
+        <v>150.1052849587822</v>
       </c>
       <c r="D102">
-        <v>21.81539195079434</v>
+        <v>12.66818250814375</v>
       </c>
       <c r="E102">
-        <v>0.4163500000000004</v>
+        <v>0.08495000000000008</v>
       </c>
       <c r="F102">
-        <v>11.314797814802</v>
+        <v>82.852642549422</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3275,22 +3275,22 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>432.5159</v>
+        <v>165.0311</v>
       </c>
       <c r="C103">
-        <v>98.85760089666198</v>
+        <v>112.745715985182</v>
       </c>
       <c r="D103">
-        <v>24.931226849159</v>
+        <v>2.254178740375881</v>
       </c>
       <c r="E103">
-        <v>0.2538500000000004</v>
+        <v>0.0202</v>
       </c>
       <c r="F103">
-        <v>16.258909583022</v>
+        <v>164.311961555182</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3298,19 +3298,19 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>386.2792</v>
+        <v>183.755</v>
       </c>
       <c r="C104">
-        <v>160.3936185846438</v>
+        <v>121.6000973495431</v>
       </c>
       <c r="D104">
-        <v>11.57976762496595</v>
+        <v>6.650871649583515</v>
       </c>
       <c r="E104">
-        <v>0.07284999999999986</v>
+        <v>0.05489999999999995</v>
       </c>
       <c r="F104">
-        <v>22.394706906666</v>
+        <v>66.37940922979901</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3321,22 +3321,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>97.39565</v>
+        <v>262.0899</v>
       </c>
       <c r="C105">
-        <v>35.65019021468951</v>
+        <v>74.66974090770859</v>
       </c>
       <c r="D105">
-        <v>8.976233737139893</v>
+        <v>13.22350100599984</v>
       </c>
       <c r="E105">
-        <v>0.2538</v>
+        <v>0.1788499999999997</v>
       </c>
       <c r="F105">
-        <v>21.71999787851</v>
+        <v>27.397623107031</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3344,22 +3344,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>104.2738</v>
+        <v>633.1295</v>
       </c>
       <c r="C106">
-        <v>53.62768868920173</v>
+        <v>160.0328941791778</v>
       </c>
       <c r="D106">
-        <v>10.95300033716919</v>
+        <v>20.23482634392021</v>
       </c>
       <c r="E106">
-        <v>0.2059499999999996</v>
+        <v>0.1268500000000001</v>
       </c>
       <c r="F106">
-        <v>20.565183005236</v>
+        <v>98.50127073631501</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3367,22 +3367,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>161.2099</v>
+        <v>477.9883</v>
       </c>
       <c r="C107">
-        <v>18.55901048679284</v>
+        <v>64.91988166118968</v>
       </c>
       <c r="D107">
-        <v>9.565809959837187</v>
+        <v>14.38888690502454</v>
       </c>
       <c r="E107">
-        <v>0.5938499999999998</v>
+        <v>0.2239500000000003</v>
       </c>
       <c r="F107">
-        <v>7.875669603681001</v>
+        <v>31.394425563062</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3390,19 +3390,19 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>377.8726</v>
+        <v>383.9865</v>
       </c>
       <c r="C108">
-        <v>77.1815656221813</v>
+        <v>135.5257306211121</v>
       </c>
       <c r="D108">
-        <v>10.76253012556719</v>
+        <v>23.57412171600902</v>
       </c>
       <c r="E108">
-        <v>0.1407500000000006</v>
+        <v>0.1742999999999997</v>
       </c>
       <c r="F108">
-        <v>17.763850919779</v>
+        <v>35.656143668827</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3413,22 +3413,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>102.7453</v>
+        <v>238.7805</v>
       </c>
       <c r="C109">
-        <v>54.067667317923</v>
+        <v>60.97297993091772</v>
       </c>
       <c r="D109">
-        <v>17.35807540630523</v>
+        <v>20.16633000788648</v>
       </c>
       <c r="E109">
-        <v>0.3309499999999996</v>
+        <v>0.3438500000000002</v>
       </c>
       <c r="F109">
-        <v>10.231751279144</v>
+        <v>9.471024791084</v>
       </c>
       <c r="G109">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3436,22 +3436,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>213.9426</v>
+        <v>533.0137</v>
       </c>
       <c r="C110">
-        <v>45.053182376365</v>
+        <v>142.6780651074481</v>
       </c>
       <c r="D110">
-        <v>7.971738199984239</v>
+        <v>23.36312748628334</v>
       </c>
       <c r="E110">
-        <v>0.2988</v>
+        <v>0.17035</v>
       </c>
       <c r="F110">
-        <v>18.192523270968</v>
+        <v>10.979409225616</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3459,22 +3459,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>86.31413999999999</v>
+        <v>15.23961</v>
       </c>
       <c r="C111">
-        <v>28.84144767310469</v>
+        <v>11.57642661717099</v>
       </c>
       <c r="D111">
-        <v>8.709710650980234</v>
+        <v>3.393793923483115</v>
       </c>
       <c r="E111">
-        <v>0.3222</v>
+        <v>0.3701000000000008</v>
       </c>
       <c r="F111">
-        <v>13.671679947608</v>
+        <v>12.490546928392</v>
       </c>
       <c r="G111">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3482,22 +3482,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>183.755</v>
+        <v>353.4168</v>
       </c>
       <c r="C112">
-        <v>121.6000973495431</v>
+        <v>116.2883230493033</v>
       </c>
       <c r="D112">
-        <v>6.650871649583515</v>
+        <v>17.09973156951947</v>
       </c>
       <c r="E112">
-        <v>0.05489999999999995</v>
+        <v>0.1482000000000001</v>
       </c>
       <c r="F112">
-        <v>66.37940922979901</v>
+        <v>21.363517111527</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3505,22 +3505,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>262.0899</v>
+        <v>617.8446</v>
       </c>
       <c r="C113">
-        <v>74.66974090770859</v>
+        <v>161.5894077192282</v>
       </c>
       <c r="D113">
-        <v>13.22350100599984</v>
+        <v>22.56537756799965</v>
       </c>
       <c r="E113">
-        <v>0.1788499999999997</v>
+        <v>0.1405500000000002</v>
       </c>
       <c r="F113">
-        <v>27.397623107031</v>
+        <v>12.810763311423</v>
       </c>
       <c r="G113">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3528,19 +3528,19 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>355.7095</v>
+        <v>479.8989</v>
       </c>
       <c r="C114">
-        <v>73.16774677846539</v>
+        <v>59.39217942497834</v>
       </c>
       <c r="D114">
-        <v>9.975847979679191</v>
+        <v>14.62777082899261</v>
       </c>
       <c r="E114">
-        <v>0.1373500000000001</v>
+        <v>0.2487499999999998</v>
       </c>
       <c r="F114">
-        <v>28.4902657913</v>
+        <v>20.394413091036</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -3551,19 +3551,19 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>648.4143</v>
+        <v>298.0092</v>
       </c>
       <c r="C115">
-        <v>135.2034108836366</v>
+        <v>189.0555083562999</v>
       </c>
       <c r="D115">
-        <v>23.43025045105238</v>
+        <v>5.982933840031627</v>
       </c>
       <c r="E115">
-        <v>0.177</v>
+        <v>0.03174999999999972</v>
       </c>
       <c r="F115">
-        <v>9.057799136666</v>
+        <v>260.501325405273</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -3574,22 +3574,22 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>192.9259</v>
+        <v>370.9944</v>
       </c>
       <c r="C116">
-        <v>41.32007148679534</v>
+        <v>73.5478472981591</v>
       </c>
       <c r="D116">
-        <v>16.96749921632786</v>
+        <v>19.73978689078275</v>
       </c>
       <c r="E116">
-        <v>0.4139499999999998</v>
+        <v>0.2803500000000003</v>
       </c>
       <c r="F116">
-        <v>21.315819493005</v>
+        <v>12.545572363174</v>
       </c>
       <c r="G116">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3597,19 +3597,19 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>89.75323</v>
+        <v>150.1284</v>
       </c>
       <c r="C117">
-        <v>24.58794317629236</v>
+        <v>73.39542503130163</v>
       </c>
       <c r="D117">
-        <v>4.496728923626542</v>
+        <v>3.720483355091196</v>
       </c>
       <c r="E117">
-        <v>0.6834999999999996</v>
+        <v>0.05120000000000013</v>
       </c>
       <c r="F117">
-        <v>10.601453346604</v>
+        <v>18.643577915917</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -3620,22 +3620,22 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>139.0469</v>
+        <v>648.4143</v>
       </c>
       <c r="C118">
-        <v>46.86899500642912</v>
+        <v>135.2034108836366</v>
       </c>
       <c r="D118">
-        <v>16.61228979770028</v>
+        <v>23.43025045105238</v>
       </c>
       <c r="E118">
-        <v>0.3578000000000001</v>
+        <v>0.177</v>
       </c>
       <c r="F118">
-        <v>20.546459070472</v>
+        <v>9.057799136666</v>
       </c>
       <c r="G118">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3643,22 +3643,22 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>78.28959999999999</v>
+        <v>104.2738</v>
       </c>
       <c r="C119">
-        <v>31.02009025089647</v>
+        <v>53.62768868920173</v>
       </c>
       <c r="D119">
-        <v>10.51993060505554</v>
+        <v>10.95300033716919</v>
       </c>
       <c r="E119">
-        <v>0.3420500000000004</v>
+        <v>0.2059499999999996</v>
       </c>
       <c r="F119">
-        <v>18.684617719863</v>
+        <v>20.565183005236</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3666,22 +3666,22 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>168.4702</v>
+        <v>528.8104</v>
       </c>
       <c r="C120">
-        <v>74.13467930862907</v>
+        <v>182.873082142301</v>
       </c>
       <c r="D120">
-        <v>6.742073315580042</v>
+        <v>32.26751418708503</v>
       </c>
       <c r="E120">
-        <v>0.09190000000000031</v>
+        <v>0.1788499999999997</v>
       </c>
       <c r="F120">
-        <v>35.308530295435</v>
+        <v>11.880108479507</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3689,22 +3689,22 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>636.1864</v>
+        <v>601.0313</v>
       </c>
       <c r="C121">
-        <v>148.7744338112078</v>
+        <v>124.279861073733</v>
       </c>
       <c r="D121">
-        <v>25.42503470861565</v>
+        <v>24.24643970474385</v>
       </c>
       <c r="E121">
-        <v>0.1730499999999999</v>
+        <v>0.1960000000000002</v>
       </c>
       <c r="F121">
-        <v>9.365291895175</v>
+        <v>20.203659329243</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3712,19 +3712,19 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>141.7217</v>
+        <v>651.0892</v>
       </c>
       <c r="C122">
-        <v>31.80884262973176</v>
+        <v>399.298577770545</v>
       </c>
       <c r="D122">
-        <v>11.67025052939007</v>
+        <v>19.94356668420395</v>
       </c>
       <c r="E122">
-        <v>0.3820999999999994</v>
+        <v>0.05025000000000013</v>
       </c>
       <c r="F122">
-        <v>10.951476170206</v>
+        <v>187.48104669547</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -3735,19 +3735,19 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>500.5334</v>
+        <v>240.309</v>
       </c>
       <c r="C123">
-        <v>158.5534565012889</v>
+        <v>138.4015801755273</v>
       </c>
       <c r="D123">
-        <v>25.06667065763693</v>
+        <v>1.929820950535349</v>
       </c>
       <c r="E123">
-        <v>0.15855</v>
+        <v>0.01405000000000012</v>
       </c>
       <c r="F123">
-        <v>16.628571336836</v>
+        <v>232.947065265133</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -3758,19 +3758,19 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>412.2635</v>
+        <v>86.31413999999999</v>
       </c>
       <c r="C124">
-        <v>61.89934360905248</v>
+        <v>28.84144767310469</v>
       </c>
       <c r="D124">
-        <v>11.69547698120216</v>
+        <v>8.709710650980234</v>
       </c>
       <c r="E124">
-        <v>0.1922000000000006</v>
+        <v>0.3222</v>
       </c>
       <c r="F124">
-        <v>14.002748566184</v>
+        <v>13.671679947608</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -3781,19 +3781,19 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>605.2346</v>
+        <v>141.7217</v>
       </c>
       <c r="C125">
-        <v>182.146362549711</v>
+        <v>31.80884262973176</v>
       </c>
       <c r="D125">
-        <v>28.36858625730796</v>
+        <v>11.67025052939007</v>
       </c>
       <c r="E125">
-        <v>0.1564000000000001</v>
+        <v>0.3820999999999994</v>
       </c>
       <c r="F125">
-        <v>18.588590690642</v>
+        <v>10.951476170206</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -3804,19 +3804,19 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>554.4125</v>
+        <v>97.77777</v>
       </c>
       <c r="C126">
-        <v>396.3038550502162</v>
+        <v>23.71593290150255</v>
       </c>
       <c r="D126">
-        <v>12.73898159452216</v>
+        <v>4.620607931398013</v>
       </c>
       <c r="E126">
-        <v>0.03225000000000033</v>
+        <v>0.2526499999999992</v>
       </c>
       <c r="F126">
-        <v>408.290416345706</v>
+        <v>8.258707695190001</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -3827,19 +3827,19 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>210.1214</v>
+        <v>496.7122</v>
       </c>
       <c r="C127">
-        <v>60.30044288300217</v>
+        <v>344.4936827469944</v>
       </c>
       <c r="D127">
-        <v>17.62235139357325</v>
+        <v>7.921622828949283</v>
       </c>
       <c r="E127">
-        <v>0.3130499999999996</v>
+        <v>0.0233500000000002</v>
       </c>
       <c r="F127">
-        <v>8.29653768266</v>
+        <v>484.776199631777</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -3850,22 +3850,22 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>142.4859</v>
+        <v>202.0968</v>
       </c>
       <c r="C128">
-        <v>42.23678329648089</v>
+        <v>48.3566453485384</v>
       </c>
       <c r="D128">
-        <v>20.53297800301148</v>
+        <v>19.71456724993963</v>
       </c>
       <c r="E128">
-        <v>0.5035999999999996</v>
+        <v>0.4170499999999997</v>
       </c>
       <c r="F128">
-        <v>9.830294953994001</v>
+        <v>12.562385689598</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3873,22 +3873,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>703.4397</v>
+        <v>121.4693</v>
       </c>
       <c r="C129">
-        <v>242.999318755757</v>
+        <v>32.83178308972803</v>
       </c>
       <c r="D129">
-        <v>24.97968939352463</v>
+        <v>6.779300060033613</v>
       </c>
       <c r="E129">
-        <v>0.1029999999999998</v>
+        <v>0.20845</v>
       </c>
       <c r="F129">
-        <v>23.510879343792</v>
+        <v>12.128870404498</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3896,22 +3896,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>539.8919</v>
+        <v>192.9259</v>
       </c>
       <c r="C130">
-        <v>100.9842248061106</v>
+        <v>41.32007148679534</v>
       </c>
       <c r="D130">
-        <v>13.69288289113247</v>
+        <v>16.96749921632786</v>
       </c>
       <c r="E130">
-        <v>0.1365499999999997</v>
+        <v>0.4139499999999998</v>
       </c>
       <c r="F130">
-        <v>44.995445522556</v>
+        <v>21.315819493005</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3919,22 +3919,22 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>494.0374</v>
+        <v>244.5123</v>
       </c>
       <c r="C131">
-        <v>185.8731025323054</v>
+        <v>27.59761602683521</v>
       </c>
       <c r="D131">
-        <v>19.95299104597121</v>
+        <v>18.20993888791408</v>
       </c>
       <c r="E131">
-        <v>0.1079499999999998</v>
+        <v>0.7414499999999999</v>
       </c>
       <c r="F131">
-        <v>19.283246435426</v>
+        <v>10.591097862707</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3942,22 +3942,22 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>584.218</v>
+        <v>141.3396</v>
       </c>
       <c r="C132">
-        <v>58.8795503261391</v>
+        <v>62.58874420562054</v>
       </c>
       <c r="D132">
-        <v>18.12262275912423</v>
+        <v>11.31866211229383</v>
       </c>
       <c r="E132">
-        <v>0.3296500000000009</v>
+        <v>0.1825999999999999</v>
       </c>
       <c r="F132">
-        <v>19.036473727861</v>
+        <v>28.205233852842</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3965,22 +3965,22 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>601.0313</v>
+        <v>445.1259</v>
       </c>
       <c r="C133">
-        <v>124.279861073733</v>
+        <v>129.50400046126</v>
       </c>
       <c r="D133">
-        <v>24.24643970474385</v>
+        <v>21.54254123029837</v>
       </c>
       <c r="E133">
-        <v>0.1960000000000002</v>
+        <v>0.1695000000000002</v>
       </c>
       <c r="F133">
-        <v>20.203659329243</v>
+        <v>7.838565644909</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3988,22 +3988,22 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>94.7208</v>
+        <v>237.6341</v>
       </c>
       <c r="C134">
-        <v>59.6133173633817</v>
+        <v>53.5499658793028</v>
       </c>
       <c r="D134">
-        <v>15.7730874590726</v>
+        <v>16.88104195673809</v>
       </c>
       <c r="E134">
-        <v>0.2673000000000001</v>
+        <v>0.3184499999999995</v>
       </c>
       <c r="F134">
-        <v>40.394328563873</v>
+        <v>17.809667242348</v>
       </c>
       <c r="G134">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4011,19 +4011,19 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>237.6341</v>
+        <v>286.5456</v>
       </c>
       <c r="C135">
-        <v>53.5499658793028</v>
+        <v>52.07479462862412</v>
       </c>
       <c r="D135">
-        <v>16.88104195673809</v>
+        <v>16.30153666189273</v>
       </c>
       <c r="E135">
-        <v>0.3184499999999995</v>
+        <v>0.3151000000000002</v>
       </c>
       <c r="F135">
-        <v>17.809667242348</v>
+        <v>21.592750461079</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -4034,22 +4034,22 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>15.23961</v>
+        <v>359.5307</v>
       </c>
       <c r="C136">
-        <v>11.57642661717099</v>
+        <v>48.8611826007733</v>
       </c>
       <c r="D136">
-        <v>3.393793923483115</v>
+        <v>12.41262360936103</v>
       </c>
       <c r="E136">
-        <v>0.3701000000000008</v>
+        <v>0.2559499999999999</v>
       </c>
       <c r="F136">
-        <v>12.490546928392</v>
+        <v>14.444632308508</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4057,22 +4057,22 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>380.1653</v>
+        <v>669.0488</v>
       </c>
       <c r="C137">
-        <v>54.23454900562878</v>
+        <v>152.5838812674178</v>
       </c>
       <c r="D137">
-        <v>20.21817644235469</v>
+        <v>24.26029180408571</v>
       </c>
       <c r="E137">
-        <v>0.3801999999999999</v>
+        <v>0.1597499999999998</v>
       </c>
       <c r="F137">
-        <v>7.548993374191</v>
+        <v>10.906347674336</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4080,19 +4080,19 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>564.3477</v>
+        <v>584.9822</v>
       </c>
       <c r="C138">
-        <v>79.32638337986884</v>
+        <v>159.79116568831</v>
       </c>
       <c r="D138">
-        <v>17.61778329964186</v>
+        <v>33.04437189021611</v>
       </c>
       <c r="E138">
-        <v>0.22315</v>
+        <v>0.2148500000000002</v>
       </c>
       <c r="F138">
-        <v>32.381405040157</v>
+        <v>9.778785028252001</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -4103,19 +4103,19 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>170.3808</v>
+        <v>576.5755</v>
       </c>
       <c r="C139">
-        <v>38.3853313709341</v>
+        <v>295.3654346656477</v>
       </c>
       <c r="D139">
-        <v>12.68966011172738</v>
+        <v>22.40275093410648</v>
       </c>
       <c r="E139">
-        <v>0.3346</v>
+        <v>0.07604999999999995</v>
       </c>
       <c r="F139">
-        <v>20.543937068605</v>
+        <v>60.964481158067</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -4126,22 +4126,22 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>356.4738</v>
+        <v>444.3616</v>
       </c>
       <c r="C140">
-        <v>74.394845974294</v>
+        <v>79.68791101496562</v>
       </c>
       <c r="D140">
-        <v>19.02230072921007</v>
+        <v>12.99265291344988</v>
       </c>
       <c r="E140">
-        <v>0.2846499999999992</v>
+        <v>0.2345999999999999</v>
       </c>
       <c r="F140">
-        <v>11.329394838197</v>
+        <v>14.951369805214</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4149,19 +4149,19 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>87.4605</v>
+        <v>145.5429</v>
       </c>
       <c r="C141">
-        <v>38.28633660508022</v>
+        <v>21.28960462538666</v>
       </c>
       <c r="D141">
-        <v>2.256447570985428</v>
+        <v>11.94074550608624</v>
       </c>
       <c r="E141">
-        <v>0.05955000000000021</v>
+        <v>0.5798000000000001</v>
       </c>
       <c r="F141">
-        <v>29.363373180992</v>
+        <v>12.065629362773</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -4172,22 +4172,22 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>247.5693</v>
+        <v>316.7332</v>
       </c>
       <c r="C142">
-        <v>39.54282474937049</v>
+        <v>96.57098454854534</v>
       </c>
       <c r="D142">
-        <v>18.79817591532851</v>
+        <v>8.154936162559883</v>
       </c>
       <c r="E142">
-        <v>0.4803499999999996</v>
+        <v>0.08545000000000069</v>
       </c>
       <c r="F142">
-        <v>14.435919944259</v>
+        <v>51.511910795437</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4195,22 +4195,22 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>361.0592</v>
+        <v>100.4526</v>
       </c>
       <c r="C143">
-        <v>68.25319612028957</v>
+        <v>34.1634386316789</v>
       </c>
       <c r="D143">
-        <v>24.01438048268131</v>
+        <v>7.747823085030426</v>
       </c>
       <c r="E143">
-        <v>0.3754</v>
+        <v>0.3242499999999997</v>
       </c>
       <c r="F143">
-        <v>8.411899851425</v>
+        <v>5.647903187014</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4218,22 +4218,22 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>237.6341</v>
+        <v>569.3152</v>
       </c>
       <c r="C144">
-        <v>66.08973691473743</v>
+        <v>318.6545637362946</v>
       </c>
       <c r="D144">
-        <v>24.09896935286428</v>
+        <v>19.2938693847445</v>
       </c>
       <c r="E144">
-        <v>0.3681999999999999</v>
+        <v>0.06075000000000008</v>
       </c>
       <c r="F144">
-        <v>15.930171894444</v>
+        <v>108.819286762719</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4241,22 +4241,22 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>377.4904</v>
+        <v>523.4607</v>
       </c>
       <c r="C145">
-        <v>130.6382005122702</v>
+        <v>59.03366478002998</v>
       </c>
       <c r="D145">
-        <v>8.053360667658094</v>
+        <v>21.81539195079434</v>
       </c>
       <c r="E145">
-        <v>0.06234999999999991</v>
+        <v>0.4163500000000004</v>
       </c>
       <c r="F145">
-        <v>14.846517967258</v>
+        <v>11.314797814802</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4264,19 +4264,19 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>330.8717</v>
+        <v>123.762</v>
       </c>
       <c r="C146">
-        <v>98.10866725756316</v>
+        <v>99.54152886246821</v>
       </c>
       <c r="D146">
-        <v>19.29256617989016</v>
+        <v>3.319112938612771</v>
       </c>
       <c r="E146">
-        <v>0.2233499999999999</v>
+        <v>0.03354999999999997</v>
       </c>
       <c r="F146">
-        <v>10.2557866926</v>
+        <v>110.719302010894</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4287,19 +4287,19 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>484.8665</v>
+        <v>539.8919</v>
       </c>
       <c r="C147">
-        <v>188.2553141271578</v>
+        <v>167.4945204208355</v>
       </c>
       <c r="D147">
-        <v>23.46538287761224</v>
+        <v>24.53748440508581</v>
       </c>
       <c r="E147">
-        <v>0.1249499999999997</v>
+        <v>0.1478999999999999</v>
       </c>
       <c r="F147">
-        <v>25.068448759729</v>
+        <v>10.594154831757</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4310,22 +4310,22 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>259.0329</v>
+        <v>102.7453</v>
       </c>
       <c r="C148">
-        <v>77.4845052551881</v>
+        <v>54.067667317923</v>
       </c>
       <c r="D148">
-        <v>14.39221958514299</v>
+        <v>17.35807540630523</v>
       </c>
       <c r="E148">
-        <v>0.18655</v>
+        <v>0.3309499999999996</v>
       </c>
       <c r="F148">
-        <v>30.415615664071</v>
+        <v>10.231751279144</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4333,22 +4333,22 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>202.0968</v>
+        <v>471.1101</v>
       </c>
       <c r="C149">
-        <v>48.3566453485384</v>
+        <v>119.5151269479659</v>
       </c>
       <c r="D149">
-        <v>19.71456724993963</v>
+        <v>21.59589510209119</v>
       </c>
       <c r="E149">
-        <v>0.4170499999999997</v>
+        <v>0.1818</v>
       </c>
       <c r="F149">
-        <v>12.562385689598</v>
+        <v>27.726436125055</v>
       </c>
       <c r="G149">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4356,19 +4356,19 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>286.5456</v>
+        <v>322.8471</v>
       </c>
       <c r="C150">
-        <v>52.07479462862412</v>
+        <v>76.08184011301309</v>
       </c>
       <c r="D150">
-        <v>16.30153666189273</v>
+        <v>17.31568147130109</v>
       </c>
       <c r="E150">
-        <v>0.3151000000000002</v>
+        <v>0.2290000000000001</v>
       </c>
       <c r="F150">
-        <v>21.592750461079</v>
+        <v>24.28100291376</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -4379,22 +4379,22 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>516.9646</v>
+        <v>458.8822</v>
       </c>
       <c r="C151">
-        <v>127.4651711789831</v>
+        <v>66.81713846343951</v>
       </c>
       <c r="D151">
-        <v>22.28029213306621</v>
+        <v>18.63814394241831</v>
       </c>
       <c r="E151">
-        <v>0.1755</v>
+        <v>0.2817499999999997</v>
       </c>
       <c r="F151">
-        <v>20.802440900665</v>
+        <v>19.107547162848</v>
       </c>
       <c r="G151">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4402,22 +4402,22 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>57.65506</v>
+        <v>486.7771</v>
       </c>
       <c r="C152">
-        <v>22.58269586107771</v>
+        <v>195.9744912510671</v>
       </c>
       <c r="D152">
-        <v>7.831231688144143</v>
+        <v>33.70714109719603</v>
       </c>
       <c r="E152">
-        <v>0.3529500000000008</v>
+        <v>0.1742500000000002</v>
       </c>
       <c r="F152">
-        <v>16.39609105211</v>
+        <v>15.541899750195</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4425,22 +4425,22 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>216.9996</v>
+        <v>370.2301</v>
       </c>
       <c r="C153">
-        <v>44.05341645032316</v>
+        <v>51.89086226991598</v>
       </c>
       <c r="D153">
-        <v>18.03051273759965</v>
+        <v>17.17807594937024</v>
       </c>
       <c r="E153">
-        <v>0.4136499999999996</v>
+        <v>0.3429500000000001</v>
       </c>
       <c r="F153">
-        <v>20.947455852351</v>
+        <v>9.026465208897999</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4448,19 +4448,19 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>576.5755</v>
+        <v>259.0329</v>
       </c>
       <c r="C154">
-        <v>295.3654346656477</v>
+        <v>77.4845052551881</v>
       </c>
       <c r="D154">
-        <v>22.40275093410648</v>
+        <v>14.39221958514299</v>
       </c>
       <c r="E154">
-        <v>0.07604999999999995</v>
+        <v>0.18655</v>
       </c>
       <c r="F154">
-        <v>60.964481158067</v>
+        <v>30.415615664071</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -4471,19 +4471,19 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>322.8471</v>
+        <v>636.1864</v>
       </c>
       <c r="C155">
-        <v>76.08184011301309</v>
+        <v>148.7744338112078</v>
       </c>
       <c r="D155">
-        <v>17.31568147130109</v>
+        <v>25.42503470861565</v>
       </c>
       <c r="E155">
-        <v>0.2290000000000001</v>
+        <v>0.1730499999999999</v>
       </c>
       <c r="F155">
-        <v>24.28100291376</v>
+        <v>9.365291895175</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -4494,22 +4494,22 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>280.0495</v>
+        <v>509.3222</v>
       </c>
       <c r="C156">
-        <v>161.8966995005703</v>
+        <v>61.06060027122653</v>
       </c>
       <c r="D156">
-        <v>9.551260712429299</v>
+        <v>17.81394426213244</v>
       </c>
       <c r="E156">
-        <v>0.05940000000000012</v>
+        <v>0.3063500000000001</v>
       </c>
       <c r="F156">
-        <v>68.68084158701099</v>
+        <v>10.099460958116</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4517,22 +4517,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>101.9811</v>
+        <v>401.9462</v>
       </c>
       <c r="C157">
-        <v>39.74292828473595</v>
+        <v>139.7169385645282</v>
       </c>
       <c r="D157">
-        <v>5.036915596717613</v>
+        <v>15.193628755278</v>
       </c>
       <c r="E157">
-        <v>0.1277499999999998</v>
+        <v>0.1096499999999994</v>
       </c>
       <c r="F157">
-        <v>49.560805953375</v>
+        <v>49.596266788896</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4540,22 +4540,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>479.8989</v>
+        <v>94.7208</v>
       </c>
       <c r="C158">
-        <v>59.39217942497834</v>
+        <v>59.6133173633817</v>
       </c>
       <c r="D158">
-        <v>14.62777082899261</v>
+        <v>15.7730874590726</v>
       </c>
       <c r="E158">
-        <v>0.2487499999999998</v>
+        <v>0.2673000000000001</v>
       </c>
       <c r="F158">
-        <v>20.394413091036</v>
+        <v>40.394328563873</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4563,22 +4563,22 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>86.31413999999999</v>
+        <v>703.4397</v>
       </c>
       <c r="C159">
-        <v>22.21266402248892</v>
+        <v>242.999318755757</v>
       </c>
       <c r="D159">
-        <v>2.046312151449106</v>
+        <v>24.97968939352463</v>
       </c>
       <c r="E159">
-        <v>0.1041500000000006</v>
+        <v>0.1029999999999998</v>
       </c>
       <c r="F159">
-        <v>33.859788964974</v>
+        <v>23.510879343792</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4586,19 +4586,19 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>537.2171</v>
+        <v>284.635</v>
       </c>
       <c r="C160">
-        <v>280.9072054034192</v>
+        <v>35.92347193654207</v>
       </c>
       <c r="D160">
-        <v>7.907104264097804</v>
+        <v>22.37962529381761</v>
       </c>
       <c r="E160">
-        <v>0.02834999999999965</v>
+        <v>0.6302500000000002</v>
       </c>
       <c r="F160">
-        <v>63.696802168961</v>
+        <v>17.393538462144</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -4609,19 +4609,19 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>584.9822</v>
+        <v>346.5386</v>
       </c>
       <c r="C161">
-        <v>159.79116568831</v>
+        <v>158.7493304506455</v>
       </c>
       <c r="D161">
-        <v>33.04437189021611</v>
+        <v>18.23179645958636</v>
       </c>
       <c r="E161">
-        <v>0.2148500000000002</v>
+        <v>0.1155499999999998</v>
       </c>
       <c r="F161">
-        <v>9.778785028252001</v>
+        <v>17.014665405369</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -4632,22 +4632,22 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>323.9935</v>
+        <v>234.195</v>
       </c>
       <c r="C162">
-        <v>61.06687898776909</v>
+        <v>66.10929123063478</v>
       </c>
       <c r="D162">
-        <v>10.4204720616906</v>
+        <v>11.74364067915697</v>
       </c>
       <c r="E162">
-        <v>0.3237000000000001</v>
+        <v>0.1797</v>
       </c>
       <c r="F162">
-        <v>56.715984443966</v>
+        <v>51.901329306064</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4655,22 +4655,22 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>539.8919</v>
+        <v>559.3801</v>
       </c>
       <c r="C163">
-        <v>167.4945204208355</v>
+        <v>138.079383567623</v>
       </c>
       <c r="D163">
-        <v>24.53748440508581</v>
+        <v>12.80633034011009</v>
       </c>
       <c r="E163">
-        <v>0.1478999999999999</v>
+        <v>0.0987000000000009</v>
       </c>
       <c r="F163">
-        <v>10.594154831757</v>
+        <v>40.455162238782</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4678,22 +4678,22 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>572.7542999999999</v>
+        <v>184.1371</v>
       </c>
       <c r="C164">
-        <v>62.23969894286335</v>
+        <v>39.19134671697552</v>
       </c>
       <c r="D164">
-        <v>17.25837885316417</v>
+        <v>9.007646820928109</v>
       </c>
       <c r="E164">
-        <v>0.2817000000000007</v>
+        <v>0.2326999999999999</v>
       </c>
       <c r="F164">
-        <v>13.984330336841</v>
+        <v>13.314588874252</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4701,22 +4701,22 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>185.2835</v>
+        <v>554.4125</v>
       </c>
       <c r="C165">
-        <v>91.73804607441733</v>
+        <v>396.3038550502162</v>
       </c>
       <c r="D165">
-        <v>8.310964181295112</v>
+        <v>12.73898159452216</v>
       </c>
       <c r="E165">
-        <v>0.09119999999999973</v>
+        <v>0.03225000000000033</v>
       </c>
       <c r="F165">
-        <v>35.27585894196699</v>
+        <v>408.290416345706</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4724,22 +4724,22 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>298.7735</v>
+        <v>161.2099</v>
       </c>
       <c r="C166">
-        <v>136.125688784799</v>
+        <v>18.55901048679284</v>
       </c>
       <c r="D166">
-        <v>14.59872241429127</v>
+        <v>9.565809959837187</v>
       </c>
       <c r="E166">
-        <v>0.10785</v>
+        <v>0.5938499999999998</v>
       </c>
       <c r="F166">
-        <v>62.537182568482</v>
+        <v>7.875669603681001</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4747,22 +4747,22 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>70.26505</v>
+        <v>88.60687</v>
       </c>
       <c r="C167">
-        <v>38.24756654501316</v>
+        <v>25.43110209178104</v>
       </c>
       <c r="D167">
-        <v>1.16598425070188</v>
+        <v>7.10860863682951</v>
       </c>
       <c r="E167">
-        <v>0.03160000000000007</v>
+        <v>0.2826</v>
       </c>
       <c r="F167">
-        <v>67.12026342042299</v>
+        <v>14.074358057619</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4770,22 +4770,22 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>269.3502</v>
+        <v>154.3317</v>
       </c>
       <c r="C168">
-        <v>107.2120897801839</v>
+        <v>49.26771087801783</v>
       </c>
       <c r="D168">
-        <v>18.53651202411734</v>
+        <v>23.54946299324619</v>
       </c>
       <c r="E168">
-        <v>0.17415</v>
+        <v>0.4824500000000009</v>
       </c>
       <c r="F168">
-        <v>24.832947529461</v>
+        <v>30.308546426658</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4793,19 +4793,19 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>569.3152</v>
+        <v>77.52535</v>
       </c>
       <c r="C169">
-        <v>318.6545637362946</v>
+        <v>60.82590044215029</v>
       </c>
       <c r="D169">
-        <v>19.2938693847445</v>
+        <v>4.743945789084718</v>
       </c>
       <c r="E169">
-        <v>0.06075000000000008</v>
+        <v>0.07860000000000023</v>
       </c>
       <c r="F169">
-        <v>108.819286762719</v>
+        <v>56.489808060099</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -4816,22 +4816,22 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>623.5764</v>
+        <v>185.2835</v>
       </c>
       <c r="C170">
-        <v>159.8659216194694</v>
+        <v>91.73804607441733</v>
       </c>
       <c r="D170">
-        <v>23.95540837783533</v>
+        <v>8.310964181295112</v>
       </c>
       <c r="E170">
-        <v>0.1503999999999999</v>
+        <v>0.09119999999999973</v>
       </c>
       <c r="F170">
-        <v>15.15817484336</v>
+        <v>35.27585894196699</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4839,22 +4839,22 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>67.59021</v>
+        <v>154.7138</v>
       </c>
       <c r="C171">
-        <v>35.20716182529326</v>
+        <v>64.1929110606898</v>
       </c>
       <c r="D171">
-        <v>7.188894583931095</v>
+        <v>20.8461369289508</v>
       </c>
       <c r="E171">
-        <v>0.20695</v>
+        <v>0.3345000000000002</v>
       </c>
       <c r="F171">
-        <v>22.486759875734</v>
+        <v>7.543911164154</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4862,22 +4862,22 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>304.8874</v>
+        <v>298.7735</v>
       </c>
       <c r="C172">
-        <v>137.2665908247376</v>
+        <v>136.125688784799</v>
       </c>
       <c r="D172">
-        <v>8.091221634019032</v>
+        <v>14.59872241429127</v>
       </c>
       <c r="E172">
-        <v>0.05920000000000014</v>
+        <v>0.10785</v>
       </c>
       <c r="F172">
-        <v>70.19607198504301</v>
+        <v>62.537182568482</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4885,19 +4885,19 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>244.5123</v>
+        <v>545.2415999999999</v>
       </c>
       <c r="C173">
-        <v>27.59761602683521</v>
+        <v>106.4393176285672</v>
       </c>
       <c r="D173">
-        <v>18.20993888791408</v>
+        <v>15.69382325977853</v>
       </c>
       <c r="E173">
-        <v>0.7414499999999999</v>
+        <v>0.1511999999999998</v>
       </c>
       <c r="F173">
-        <v>10.591097862707</v>
+        <v>36.582939074142</v>
       </c>
       <c r="G173">
         <v>4</v>
@@ -4908,22 +4908,22 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>273.5535</v>
+        <v>15.23961</v>
       </c>
       <c r="C174">
-        <v>56.82028800371599</v>
+        <v>11.57642661717099</v>
       </c>
       <c r="D174">
-        <v>9.090762592298063</v>
+        <v>3.393793923483115</v>
       </c>
       <c r="E174">
-        <v>0.2172000000000001</v>
+        <v>0.3701000000000008</v>
       </c>
       <c r="F174">
-        <v>15.210525429966</v>
+        <v>12.490546928392</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4931,19 +4931,19 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>316.7332</v>
+        <v>349.5956</v>
       </c>
       <c r="C175">
-        <v>96.57098454854534</v>
+        <v>97.06090198110815</v>
       </c>
       <c r="D175">
-        <v>8.154936162559883</v>
+        <v>20.31917550415859</v>
       </c>
       <c r="E175">
-        <v>0.08545000000000069</v>
+        <v>0.2106999999999997</v>
       </c>
       <c r="F175">
-        <v>51.511910795437</v>
+        <v>22.714387228063</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -4954,22 +4954,22 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>420.6701</v>
+        <v>380.1653</v>
       </c>
       <c r="C176">
-        <v>290.8608050329468</v>
+        <v>54.23454900562878</v>
       </c>
       <c r="D176">
-        <v>13.21805905679172</v>
+        <v>20.21817644235469</v>
       </c>
       <c r="E176">
-        <v>0.04565000000000019</v>
+        <v>0.3801999999999999</v>
       </c>
       <c r="F176">
-        <v>212.989183114355</v>
+        <v>7.548993374191</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4977,19 +4977,19 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>114.5911</v>
+        <v>537.2171</v>
       </c>
       <c r="C177">
-        <v>88.98741697771599</v>
+        <v>280.9072054034192</v>
       </c>
       <c r="D177">
-        <v>2.890990149463884</v>
+        <v>7.907104264097804</v>
       </c>
       <c r="E177">
-        <v>0.03284999999999982</v>
+        <v>0.02834999999999965</v>
       </c>
       <c r="F177">
-        <v>108.759561237716</v>
+        <v>63.696802168961</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -5000,22 +5000,22 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>155.4781</v>
+        <v>571.6079999999999</v>
       </c>
       <c r="C178">
-        <v>45.60349791387045</v>
+        <v>190.7464111819204</v>
       </c>
       <c r="D178">
-        <v>12.2256884336151</v>
+        <v>20.13277067400177</v>
       </c>
       <c r="E178">
-        <v>0.2683</v>
+        <v>0.1064000000000003</v>
       </c>
       <c r="F178">
-        <v>17.918953871349</v>
+        <v>12.553252998595</v>
       </c>
       <c r="G178">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5023,22 +5023,22 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>223.1135</v>
+        <v>78.28959999999999</v>
       </c>
       <c r="C179">
-        <v>93.74351949425989</v>
+        <v>31.02009025089647</v>
       </c>
       <c r="D179">
-        <v>18.86062884630702</v>
+        <v>10.51993060505554</v>
       </c>
       <c r="E179">
-        <v>0.2028000000000003</v>
+        <v>0.3420500000000004</v>
       </c>
       <c r="F179">
-        <v>33.508543261407</v>
+        <v>18.684617719863</v>
       </c>
       <c r="G179">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5046,19 +5046,19 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>145.5429</v>
+        <v>86.31413999999999</v>
       </c>
       <c r="C180">
-        <v>21.28960462538666</v>
+        <v>22.21266402248892</v>
       </c>
       <c r="D180">
-        <v>11.94074550608624</v>
+        <v>2.046312151449106</v>
       </c>
       <c r="E180">
-        <v>0.5798000000000001</v>
+        <v>0.1041500000000006</v>
       </c>
       <c r="F180">
-        <v>12.065629362773</v>
+        <v>33.859788964974</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -5069,22 +5069,22 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>571.6079999999999</v>
+        <v>67.59021</v>
       </c>
       <c r="C181">
-        <v>190.7464111819204</v>
+        <v>35.20716182529326</v>
       </c>
       <c r="D181">
-        <v>20.13277067400177</v>
+        <v>7.188894583931095</v>
       </c>
       <c r="E181">
-        <v>0.1064000000000003</v>
+        <v>0.20695</v>
       </c>
       <c r="F181">
-        <v>12.553252998595</v>
+        <v>22.486759875734</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5092,22 +5092,22 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>216.2353</v>
+        <v>377.8726</v>
       </c>
       <c r="C182">
-        <v>133.2237691355287</v>
+        <v>77.1815656221813</v>
       </c>
       <c r="D182">
-        <v>3.049700418545413</v>
+        <v>10.76253012556719</v>
       </c>
       <c r="E182">
-        <v>0.02299999999999969</v>
+        <v>0.1407500000000006</v>
       </c>
       <c r="F182">
-        <v>216.213284663913</v>
+        <v>17.763850919779</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
